--- a/public/preprocessing/@caknundotcom.xlsx
+++ b/public/preprocessing/@caknundotcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14846</v>
+        <v>30048</v>
       </c>
       <c r="C2" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sudah pasti kami memilih cinta rasulullah tapi kalau boleh mbok ya juga diberi onta dan emas barang segram dua gra</t>
+          <t>rt buku baru terbitan noura publishing karya cak nun suda bisa diorder via wa susi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['sudah', 'pasti', 'kami', 'memilih', 'cinta', 'rasulullah', 'tapi', 'kalau', 'boleh', 'mbok', 'ya', 'juga', 'diberi', 'onta', 'dan', 'emas', 'barang', 'segram', 'dua', 'gra']</t>
+          <t>['rt', 'buku', 'baru', 'terbitan', 'noura', 'publishing', 'karya', 'cak', 'nun', 'suda', 'bisa', 'diorder', 'via', 'wa', 'susi']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'buku', 'baru', 'terbitan', 'noura', 'publishing', 'karya', 'cak', 'nun', 'sudah', 'bisa', 'diorder', 'via', 'wa', 'susi']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['memilih', 'cinta', 'rasulullah', 'mbok', 'onta', 'emas', 'barang', 'segram', 'gra']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['pilih', 'cinta', 'rasulullah', 'mbok', 'onta', 'emas', 'barang', 'gram', 'gra']</t>
+          <t>['buku', 'terbitan', 'noura', 'publishing', 'karya', 'cak', 'nun', 'diorder', 'via', 'wa', 'susi']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['buku', 'terbit', 'noura', 'publishing', 'karya', 'cak', 'nun', 'order', 'via', 'wa', 'sus']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14847</v>
+        <v>30049</v>
       </c>
       <c r="C3" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sugeng tindak mas prie gs</t>
+          <t>rt telah terbit buku kalau kamu ikan jangan ikut lomba terbang karya emha ainun nadjib</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['sugeng', 'tindak', 'mas', 'prie', 'gs']</t>
+          <t>['rt', 'telah', 'terbit', 'buku', 'kalau', 'kamu', 'ikan', 'jangan', 'ikut', 'lomba', 'terbang', 'karya', 'emha', 'ainun', 'nadjib']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'telah', 'terbit', 'buku', 'kalau', 'kamu', 'ikan', 'jangan', 'ikut', 'lomba', 'terbang', 'karya', 'emha', 'ainun', 'najib']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['sugeng', 'tindak', 'mas', 'prie', 'gs']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['sugeng', 'tindak', 'mas', 'prie', 'gs']</t>
+          <t>['terbit', 'buku', 'ikan', 'lomba', 'terbang', 'karya', 'emha', 'ainun', 'najib']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['terbit', 'buku', 'ikan', 'lomba', 'terbang', 'karya', 'emha', 'ainun', 'najib']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14848</v>
+        <v>30050</v>
       </c>
       <c r="C4" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt hari ini aku bahagia sekali dikasih kedua buku ini dikasih oleh salah seniman teater senior di bogor ilmu itu harus</t>
+          <t>rt store preorder march ttd onl</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'hari', 'ini', 'aku', 'bahagia', 'sekali', 'dikasih', 'kedua', 'buku', 'ini', 'dikasih', 'oleh', 'salah', 'seniman', 'teater', 'senior', 'di', 'bogor', 'ilmu', 'itu', 'harus']</t>
+          <t>['rt', 'store', 'preorder', 'march', 'ttd', 'onl']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'store', 'preorder', 'march', 'tertanda', 'onl']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['bahagia', 'dikasih', 'buku', 'dikasih', 'salah', 'seniman', 'teater', 'senior', 'bogor', 'ilmu']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['bahagia', 'kasih', 'buku', 'kasih', 'salah', 'seniman', 'teater', 'senior', 'bogor', 'ilmu']</t>
+          <t>['store', 'preorder', 'march', 'tertanda', 'onl']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['store', 'preorder', 'march', 'tanda', 'onl']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14849</v>
+        <v>30051</v>
       </c>
       <c r="C5" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>goal permohonan saya ini adalah pertama apakah bangsa dan tanah air indonesia ini faktanya kaya ataukah miskin</t>
+          <t>rt buku terbaru dari cak nun judulnya menarik kan kirakira isinya tentang apa ya</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['goal', 'permohonan', 'saya', 'ini', 'adalah', 'pertama', 'apakah', 'bangsa', 'dan', 'tanah', 'air', 'indonesia', 'ini', 'faktanya', 'kaya', 'ataukah', 'miskin']</t>
+          <t>['rt', 'buku', 'terbaru', 'dari', 'cak', 'nun', 'judulnya', 'menarik', 'kan', 'kirakira', 'isinya', 'tentang', 'apa', 'ya']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'buku', 'terbaru', 'dari', 'cak', 'nun', 'judulnya', 'menarik', 'kan', 'kirakira', 'isinya', 'tentang', 'apa', 'ya']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['goal', 'permohonan', 'bangsa', 'tanah', 'air', 'indonesia', 'faktanya', 'kaya', 'miskin']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['goal', 'mohon', 'bangsa', 'tanah', 'air', 'indonesia', 'fakta', 'kaya', 'miskin']</t>
+          <t>['buku', 'terbaru', 'cak', 'nun', 'judulnya', 'menarik', 'kirakira', 'isinya']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['buku', 'baru', 'cak', 'nun', 'judul', 'tarik', 'kirakira', 'isi']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14850</v>
+        <v>30052</v>
       </c>
       <c r="C6" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>alam kok bencana</t>
+          <t>rt bukubuku mbah nun juga ready di gramedia pandanaran semarang</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['alam', 'kok', 'bencana']</t>
+          <t>['rt', 'bukubuku', 'mbah', 'nun', 'juga', 'ready', 'di', 'gramedia', 'pandanaran', 'semarang']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'bukubuku', 'mbah', 'nun', 'juga', 'ready', 'di', 'gramedia', 'pandanaran', 'semarang']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['alam', 'bencana']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['alam', 'bencana']</t>
+          <t>['bukubuku', 'mbah', 'nun', 'ready', 'gramedia', 'pandanaran', 'semarang']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['bukubuku', 'mbah', 'nun', 'ready', 'gramedia', 'pandanaran', 'semarang']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14851</v>
+        <v>30053</v>
       </c>
       <c r="C7" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>abu janda abu bakar abu gosok</t>
+          <t>ilmu apa yang paling penting</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['abu', 'janda', 'abu', 'bakar', 'abu', 'gosok']</t>
+          <t>['ilmu', 'apa', 'yang', 'paling', 'penting']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 6 outcomes&gt;</t>
+          <t>['ilmu', 'apa', 'yang', 'paling', 'penting']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['abu', 'janda', 'abu', 'bakar', 'abu', 'gosok']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['abu', 'janda', 'abu', 'bakar', 'abu', 'gosok']</t>
+          <t>['ilmu']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['ilmu']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14852</v>
+        <v>30054</v>
       </c>
       <c r="C8" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>orang jawa mempelajari jawa dengan cara barat china arab atau korea dst</t>
+          <t>allah merasa heran cak nun kiaikanjeng</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['orang', 'jawa', 'mempelajari', 'jawa', 'dengan', 'cara', 'barat', 'china', 'arab', 'atau', 'korea', 'dst']</t>
+          <t>['allah', 'merasa', 'heran', 'cak', 'nun', 'kiaikanjeng']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['allah', 'merasa', 'heran', 'cak', 'nun', 'kiaikanjeng']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['orang', 'jawa', 'mempelajari', 'jawa', 'barat', 'china', 'arab', 'korea', 'dst']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['orang', 'jawa', 'ajar', 'jawa', 'barat', 'china', 'arab', 'korea', 'dst']</t>
+          <t>['allah', 'heran', 'cak', 'nun', 'kiaikanjeng']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['allah', 'heran', 'cak', 'nun', 'kiaikanjeng']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14853</v>
+        <v>30055</v>
       </c>
       <c r="C9" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>sugeng tindak mas bambang susiawan teater dinasti teater perdikan</t>
+          <t>tidak ada yang kau dan aku sungguhsungguh bisa lakukan jangan sekalikali bilang aku bisa tanpa mengingat hakik</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['sugeng', 'tindak', 'mas', 'bambang', 'susiawan', 'teater', 'dinasti', 'teater', 'perdikan']</t>
+          <t>['tidak', 'ada', 'yang', 'kau', 'dan', 'aku', 'sungguhsungguh', 'bisa', 'lakukan', 'jangan', 'sekalikali', 'bilang', 'aku', 'bisa', 'tanpa', 'mengingat', 'hakik']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['tidak', 'ada', 'yang', 'kamu', 'dan', 'aku', 'sungguhsungguh', 'bisa', 'lakukan', 'jangan', 'sekalikali', 'bilang', 'aku', 'bisa', 'tanpa', 'mengingat', 'hakik']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['sugeng', 'tindak', 'mas', 'bambang', 'susiawan', 'teater', 'dinasti', 'teater', 'perdikan']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['sugeng', 'tindak', 'mas', 'bambang', 'susiawan', 'teater', 'dinasti', 'teater', 'perdikan']</t>
+          <t>['sungguhsungguh', 'lakukan', 'sekalikali', 'hakik']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['sungguhsungguh', 'laku', 'sekalikali', 'hakik']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14854</v>
+        <v>30056</v>
       </c>
       <c r="C10" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>yang saya perjuangkan bukan memakai jilbab atau membuang jilbab melainkan hak setiap manusia untuk memilih</t>
+          <t>mungkin saya agak melanggar ketentuan allah tetapi batas pemikiran saya sayupsayup berkata bahwa zaman ini lebih</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['yang', 'saya', 'perjuangkan', 'bukan', 'memakai', 'jilbab', 'atau', 'membuang', 'jilbab', 'melainkan', 'hak', 'setiap', 'manusia', 'untuk', 'memilih']</t>
+          <t>['mungkin', 'saya', 'agak', 'melanggar', 'ketentuan', 'allah', 'tetapi', 'batas', 'pemikiran', 'saya', 'sayupsayup', 'berkata', 'bahwa', 'zaman', 'ini', 'lebih']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['mungkin', 'saya', 'agak', 'melanggar', 'ketentuan', 'allah', 'tetapi', 'batas', 'pemikiran', 'saya', 'sayupsayup', 'berkata', 'bahwa', 'zaman', 'ini', 'lebih']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['perjuangkan', 'memakai', 'jilbab', 'membuang', 'jilbab', 'hak', 'manusia', 'memilih']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['juang', 'pakai', 'jilbab', 'buang', 'jilbab', 'hak', 'manusia', 'pilih']</t>
+          <t>['melanggar', 'ketentuan', 'allah', 'batas', 'pemikiran', 'sayupsayup', 'zaman']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['langgar', 'tentu', 'allah', 'batas', 'pikir', 'sayupsayup', 'zaman']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14855</v>
+        <v>30057</v>
       </c>
       <c r="C11" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>rt alhamdulillah cc</t>
+          <t>sudah pasti kami memilih cinta rasulullah tapi kalau boleh mbok ya juga diberi onta dan emas barang segram dua gra</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['rt', 'alhamdulillah', 'cc']</t>
+          <t>['sudah', 'pasti', 'kami', 'memilih', 'cinta', 'rasulullah', 'tapi', 'kalau', 'boleh', 'mbok', 'ya', 'juga', 'diberi', 'onta', 'dan', 'emas', 'barang', 'segram', 'dua', 'gra']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['sudah', 'pasti', 'kami', 'memilih', 'cinta', 'rasulullah', 'tapi', 'kalau', 'boleh', 'mbok', 'ya', 'juga', 'diberi', 'onta', 'dan', 'emas', 'barang', 'segram', 'dua', 'gra']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'cc']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'cc']</t>
+          <t>['memilih', 'cinta', 'rasulullah', 'mbok', 'onta', 'emas', 'barang', 'segram', 'gra']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['pilih', 'cinta', 'rasulullah', 'mbok', 'onta', 'emas', 'barang', 'gram', 'gra']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14856</v>
+        <v>30058</v>
       </c>
       <c r="C12" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>kekuatan menang melawan kelemahan kekuatan kalah oleh ketahanan tetapi koordinat dan momentum mengalahkan kekuata</t>
+          <t>sugeng tindak mas prie gs</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['kekuatan', 'menang', 'melawan', 'kelemahan', 'kekuatan', 'kalah', 'oleh', 'ketahanan', 'tetapi', 'koordinat', 'dan', 'momentum', 'mengalahkan', 'kekuata']</t>
+          <t>['sugeng', 'tindak', 'mas', 'prie', 'gs']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['sugeng', 'tindak', 'mas', 'prie', 'gs']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['kekuatan', 'menang', 'melawan', 'kelemahan', 'kekuatan', 'kalah', 'ketahanan', 'koordinat', 'momentum', 'mengalahkan', 'kekuata']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['kuat', 'menang', 'lawan', 'lemah', 'kuat', 'kalah', 'tahan', 'koordinat', 'momentum', 'kalah', 'kekuata']</t>
+          <t>['sugeng', 'tindak', 'mas', 'prie', 'gs']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['sugeng', 'tindak', 'mas', 'prie', 'gs']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14857</v>
+        <v>30059</v>
       </c>
       <c r="C13" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>maksud berdakwah itu apakah mempengaruhi orang agar masuk islam ataukah mengajak dan meneladani orang banyak untuk</t>
+          <t>rt hari ini aku bahagia sekali dikasih kedua buku ini dikasih oleh salah seniman teater senior di bogor ilmu itu harus</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['maksud', 'berdakwah', 'itu', 'apakah', 'mempengaruhi', 'orang', 'agar', 'masuk', 'islam', 'ataukah', 'mengajak', 'dan', 'meneladani', 'orang', 'banyak', 'untuk']</t>
+          <t>['rt', 'hari', 'ini', 'aku', 'bahagia', 'sekali', 'dikasih', 'kedua', 'buku', 'ini', 'dikasih', 'oleh', 'salah', 'seniman', 'teater', 'senior', 'di', 'bogor', 'ilmu', 'itu', 'harus']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'hari', 'ini', 'aku', 'bahagia', 'sekali', 'dikasih', 'kedua', 'buku', 'ini', 'dikasih', 'oleh', 'salah', 'seniman', 'teater', 'senior', 'di', 'bogor', 'ilmu', 'itu', 'harus']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['maksud', 'berdakwah', 'mempengaruhi', 'orang', 'masuk', 'islam', 'mengajak', 'meneladani', 'orang']</t>
+          <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['maksud', 'dakwah', 'pengaruh', 'orang', 'masuk', 'islam', 'ajak', 'teladan', 'orang']</t>
+          <t>['bahagia', 'dikasih', 'buku', 'dikasih', 'salah', 'seniman', 'teater', 'senior', 'bogor', 'ilmu']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['bahagia', 'kasih', 'buku', 'kasih', 'salah', 'seniman', 'teater', 'senior', 'bogor', 'ilmu']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14858</v>
+        <v>30060</v>
       </c>
       <c r="C14" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt hari terakhir preorder buku rahman rahim cinta puisipuisi emha ainun nadjib pesan di dapat</t>
+          <t>goal permohonan saya ini adalah pertama apakah bangsa dan tanah air indonesia ini faktanya kaya ataukah miskin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'hari', 'terakhir', 'preorder', 'buku', 'rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'nadjib', 'pesan', 'di', 'dapat']</t>
+          <t>['goal', 'permohonan', 'saya', 'ini', 'adalah', 'pertama', 'apakah', 'bangsa', 'dan', 'tanah', 'air', 'indonesia', 'ini', 'faktanya', 'kaya', 'ataukah', 'miskin']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['goal', 'permohonan', 'saya', 'ini', 'adalah', 'pertama', 'apakah', 'bangsa', 'dan', 'tanah', 'air', 'indonesia', 'ini', 'faktanya', 'kayak', 'ataukah', 'miskin']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['preorder', 'buku', 'rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'nadjib', 'pesan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['preorder', 'buku', 'rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'nadjib', 'pesan']</t>
+          <t>['goal', 'permohonan', 'bangsa', 'tanah', 'air', 'indonesia', 'faktanya', 'kayak', 'miskin']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['goal', 'mohon', 'bangsa', 'tanah', 'air', 'indonesia', 'fakta', 'kayak', 'miskin']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14859</v>
+        <v>30061</v>
       </c>
       <c r="C15" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>keluarkan napasmu bersamaan dengan hatimu mengucapkan la ilaha kemudian tarik udara atau hirup napas sedalamda</t>
+          <t>alam kok bencana</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['keluarkan', 'napasmu', 'bersamaan', 'dengan', 'hatimu', 'mengucapkan', 'la', 'ilaha', 'kemudian', 'tarik', 'udara', 'atau', 'hirup', 'napas', 'sedalamda']</t>
+          <t>['alam', 'kok', 'bencana']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['alam', 'kok', 'bencana']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['keluarkan', 'napasmu', 'bersamaan', 'hatimu', 'la', 'ilaha', 'tarik', 'udara', 'hirup', 'napas', 'sedalamda']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['keluar', 'napas', 'sama', 'hati', 'la', 'ilaha', 'tarik', 'udara', 'hirup', 'napas', 'sedalamda']</t>
+          <t>['alam', 'bencana']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['alam', 'bencana']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14860</v>
+        <v>30062</v>
       </c>
       <c r="C16" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>sampaisampai kalau ada anjing lewat anak maiyah bergurau menyapa mau ke mana mas karena binatang diciptakan</t>
+          <t>abu janda abu bakar abu gosok</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['sampaisampai', 'kalau', 'ada', 'anjing', 'lewat', 'anak', 'maiyah', 'bergurau', 'menyapa', 'mau', 'ke', 'mana', 'mas', 'karena', 'binatang', 'diciptakan']</t>
+          <t>['abu', 'janda', 'abu', 'bakar', 'abu', 'gosok']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['abu', 'janda', 'abu', 'bakar', 'abu', 'gosok']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['sampaisampai', 'anjing', 'anak', 'maiyah', 'bergurau', 'menyapa', 'mas', 'binatang', 'diciptakan']</t>
+          <t>&lt;FreqDist with 4 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['sampaisampai', 'anjing', 'anak', 'maiyah', 'gurau', 'sapa', 'mas', 'binatang', 'cipta']</t>
+          <t>['abu', 'janda', 'abu', 'bakar', 'abu', 'gosok']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['abu', 'janda', 'abu', 'bakar', 'abu', 'gosok']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14861</v>
+        <v>30063</v>
       </c>
       <c r="C17" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>beredar di grup whatsapp penggalan tulisan dari mbah nun agar lengkap dan jangkep baca tulisan secara utuh di</t>
+          <t>orang jawa mempelajari jawa dengan cara barat china arab atau korea dst</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['beredar', 'di', 'grup', 'whatsapp', 'penggalan', 'tulisan', 'dari', 'mbah', 'nun', 'agar', 'lengkap', 'dan', 'jangkep', 'baca', 'tulisan', 'secara', 'utuh', 'di']</t>
+          <t>['orang', 'jawa', 'mempelajari', 'jawa', 'dengan', 'cara', 'barat', 'china', 'arab', 'atau', 'korea', 'dst']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['orang', 'jawa', 'mempelajari', 'jawa', 'dengan', 'cara', 'barat', 'cina', 'arab', 'atau', 'korea', 'dan, seterusnya']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['beredar', 'grup', 'whatsapp', 'penggalan', 'tulisan', 'mbah', 'nun', 'lengkap', 'jangkep', 'baca', 'tulisan', 'utuh']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['edar', 'grup', 'whatsapp', 'penggal', 'tulis', 'mbah', 'nun', 'lengkap', 'jangkep', 'baca', 'tulis', 'utuh']</t>
+          <t>['orang', 'jawa', 'mempelajari', 'jawa', 'barat', 'cina', 'arab', 'korea', 'dan, seterusnya']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['orang', 'jawa', 'ajar', 'jawa', 'barat', 'cina', 'arab', 'korea', 'dan terus']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>14862</v>
+        <v>30064</v>
       </c>
       <c r="C18" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ya hafidz ya hafidz ihfadhna ya rohman ya rohim irhamna</t>
+          <t>sugeng tindak mas bambang susiawan teater dinasti teater perdikan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['ya', 'hafidz', 'ya', 'hafidz', 'ihfadhna', 'ya', 'rohman', 'ya', 'rohim', 'irhamna']</t>
+          <t>['sugeng', 'tindak', 'mas', 'bambang', 'susiawan', 'teater', 'dinasti', 'teater', 'perdikan']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 10 outcomes&gt;</t>
+          <t>['sugeng', 'tindak', 'mas', 'bambang', 'susiawan', 'teater', 'dinasti', 'teater', 'perdikan']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['hafidz', 'hafidz', 'ihfadhna', 'rohman', 'rohim', 'irhamna']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['hafidz', 'hafidz', 'ihfadhna', 'rohman', 'rohim', 'irhamna']</t>
+          <t>['sugeng', 'tindak', 'mas', 'bambang', 'susiawan', 'teater', 'dinasti', 'teater', 'perdikan']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['sugeng', 'tindak', 'mas', 'bambang', 'susiawan', 'teater', 'dinasti', 'teater', 'perdikan']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14863</v>
+        <v>30065</v>
       </c>
       <c r="C19" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>rt rahman rahim cinta puisipuisi emha ainun nadjib sebuah persembahan sebagai sedekah budaya amp kemanusiaan kep</t>
+          <t>yang saya perjuangkan bukan memakai jilbab atau membuang jilbab melainkan hak setiap manusia untuk memilih</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'nadjib', 'sebuah', 'persembahan', 'sebagai', 'sedekah', 'budaya', 'amp', 'kemanusiaan', 'kep']</t>
+          <t>['yang', 'saya', 'perjuangkan', 'bukan', 'memakai', 'jilbab', 'atau', 'membuang', 'jilbab', 'melainkan', 'hak', 'setiap', 'manusia', 'untuk', 'memilih']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['yang', 'saya', 'perjuangkan', 'bukan', 'memakai', 'jilbab', 'atau', 'membuang', 'jilbab', 'melainkan', 'hak', 'setiap', 'manusia', 'untuk', 'memilih']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'nadjib', 'persembahan', 'sedekah', 'budaya', 'kemanusiaan', 'kep']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'nadjib', 'sembah', 'sedekah', 'budaya', 'manusia', 'kep']</t>
+          <t>['perjuangkan', 'memakai', 'jilbab', 'membuang', 'jilbab', 'hak', 'manusia', 'memilih']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['juang', 'pakai', 'jilbab', 'buang', 'jilbab', 'hak', 'manusia', 'pilih']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14864</v>
+        <v>30066</v>
       </c>
       <c r="C20" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>kafirnw dicari dibuka video lengkapnya ada part di runut secara runtut agar lengkap dan jangk</t>
+          <t>rt alhamdulillah cc</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['kafirnw', 'dicari', 'dibuka', 'video', 'lengkapnya', 'ada', 'part', 'di', 'runut', 'secara', 'runtut', 'agar', 'lengkap', 'dan', 'jangk']</t>
+          <t>['rt', 'alhamdulillah', 'cc']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'alhamdulillah', 'cc']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['kafirnw', 'dicari', 'dibuka', 'video', 'lengkapnya', 'part', 'runut', 'runtut', 'lengkap', 'jangk']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['kafirnw', 'cari', 'buka', 'video', 'lengkap', 'part', 'runut', 'runtut', 'lengkap', 'jangk']</t>
+          <t>['alhamdulillah', 'cc']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'cc']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14865</v>
+        <v>30067</v>
       </c>
       <c r="C21" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>live hujan kopi telo dan kacang rebus keroncongan bersama mbah nun dan kiaikanjeng monggoooo</t>
+          <t>kekuatan menang melawan kelemahan kekuatan kalah oleh ketahanan tetapi koordinat dan momentum mengalahkan kekuata</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['live', 'hujan', 'kopi', 'telo', 'dan', 'kacang', 'rebus', 'keroncongan', 'bersama', 'mbah', 'nun', 'dan', 'kiaikanjeng', 'monggoooo']</t>
+          <t>['kekuatan', 'menang', 'melawan', 'kelemahan', 'kekuatan', 'kalah', 'oleh', 'ketahanan', 'tetapi', 'koordinat', 'dan', 'momentum', 'mengalahkan', 'kekuata']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['kekuatan', 'menang', 'melawan', 'kelemahan', 'kekuatan', 'kalah', 'oleh', 'ketahanan', 'tetapi', 'koordinat', 'dan', 'momentum', 'mengalahkan', 'kekuata']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['live', 'hujan', 'kopi', 'telo', 'kacang', 'rebus', 'keroncongan', 'mbah', 'nun', 'kiaikanjeng', 'monggoooo']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['live', 'hujan', 'kopi', 'telo', 'kacang', 'rebus', 'keroncong', 'mbah', 'nun', 'kiaikanjeng', 'monggoooo']</t>
+          <t>['kekuatan', 'menang', 'melawan', 'kelemahan', 'kekuatan', 'kalah', 'ketahanan', 'koordinat', 'momentum', 'mengalahkan', 'kekuata']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['kuat', 'menang', 'lawan', 'lemah', 'kuat', 'kalah', 'tahan', 'koordinat', 'momentum', 'kalah', 'kekuata']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>14866</v>
+        <v>30068</v>
       </c>
       <c r="C22" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>tapi yang berlangsung sekarang ini adalah perang kebusukan mulut perang kefasikan narasi perang kepengecutan per</t>
+          <t>maksud berdakwah itu apakah mempengaruhi orang agar masuk islam ataukah mengajak dan meneladani orang banyak untuk</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['tapi', 'yang', 'berlangsung', 'sekarang', 'ini', 'adalah', 'perang', 'kebusukan', 'mulut', 'perang', 'kefasikan', 'narasi', 'perang', 'kepengecutan', 'per']</t>
+          <t>['maksud', 'berdakwah', 'itu', 'apakah', 'mempengaruhi', 'orang', 'agar', 'masuk', 'islam', 'ataukah', 'mengajak', 'dan', 'meneladani', 'orang', 'banyak', 'untuk']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['maksud', 'berdakwah', 'itu', 'apakah', 'mempengaruhi', 'orang', 'agar', 'masuk', 'islam', 'ataukah', 'mengajak', 'dan', 'meneladani', 'orang', 'banyak', 'untuk']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['perang', 'kebusukan', 'mulut', 'perang', 'kefasikan', 'narasi', 'perang', 'kepengecutan']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['perang', 'busuk', 'mulut', 'perang', 'fasik', 'narasi', 'perang', 'kecut']</t>
+          <t>['maksud', 'berdakwah', 'mempengaruhi', 'orang', 'masuk', 'islam', 'mengajak', 'meneladani', 'orang']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['maksud', 'dakwah', 'pengaruh', 'orang', 'masuk', 'islam', 'ajak', 'teladan', 'orang']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14867</v>
+        <v>30069</v>
       </c>
       <c r="C23" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ternyata sastra lebih meriah tribute iman budi santosa</t>
+          <t>rt hari terakhir preorder buku rahman rahim cinta puisipuisi emha ainun nadjib pesan di dapat</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['ternyata', 'sastra', 'lebih', 'meriah', 'tribute', 'iman', 'budi', 'santosa']</t>
+          <t>['rt', 'hari', 'terakhir', 'preorder', 'buku', 'rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'nadjib', 'pesan', 'di', 'dapat']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'hari', 'terakhir', 'preorder', 'buku', 'rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'najib', 'pesan', 'di', 'dapat']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['sastra', 'meriah', 'tribute', 'iman', 'budi', 'santosa']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['sastra', 'riah', 'tribute', 'iman', 'budi', 'santosa']</t>
+          <t>['preorder', 'buku', 'rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'najib', 'pesan']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['preorder', 'buku', 'rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'najib', 'pesan']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14868</v>
+        <v>30070</v>
       </c>
       <c r="C24" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>prosesi pemakaman bapak iman budi santosa di makam seniman girisapto imogiri yogyakarta</t>
+          <t>keluarkan napasmu bersamaan dengan hatimu mengucapkan la ilaha kemudian tarik udara atau hirup napas sedalamda</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['prosesi', 'pemakaman', 'bapak', 'iman', 'budi', 'santosa', 'di', 'makam', 'seniman', 'girisapto', 'imogiri', 'yogyakarta']</t>
+          <t>['keluarkan', 'napasmu', 'bersamaan', 'dengan', 'hatimu', 'mengucapkan', 'la', 'ilaha', 'kemudian', 'tarik', 'udara', 'atau', 'hirup', 'napas', 'sedalamda']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['keluarkan', 'napasmu', 'bersamaan', 'dengan', 'hatimu', 'mengucapkan', 'lah', 'ilaha', 'kemudian', 'tarik', 'udara', 'atau', 'hirup', 'napas', 'sedalamda']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['prosesi', 'pemakaman', 'iman', 'budi', 'santosa', 'makam', 'seniman', 'girisapto', 'imogiri', 'yogyakarta']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['prosesi', 'makam', 'iman', 'budi', 'santosa', 'makam', 'seniman', 'girisapto', 'imogiri', 'yogyakarta']</t>
+          <t>['keluarkan', 'napasmu', 'bersamaan', 'hatimu', 'ilaha', 'tarik', 'udara', 'hirup', 'napas', 'sedalamda']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['keluar', 'napas', 'sama', 'hati', 'ilaha', 'tarik', 'udara', 'hirup', 'napas', 'sedalamda']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14869</v>
+        <v>30071</v>
       </c>
       <c r="C25" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>suasana di rumah duka dipowinatan tempat almarhum pak iman budi santosa disemayamkan sebelum pukul wib nant</t>
+          <t>sampaisampai kalau ada anjing lewat anak maiyah bergurau menyapa mau ke mana mas karena binatang diciptakan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['suasana', 'di', 'rumah', 'duka', 'dipowinatan', 'tempat', 'almarhum', 'pak', 'iman', 'budi', 'santosa', 'disemayamkan', 'sebelum', 'pukul', 'wib', 'nant']</t>
+          <t>['sampaisampai', 'kalau', 'ada', 'anjing', 'lewat', 'anak', 'maiyah', 'bergurau', 'menyapa', 'mau', 'ke', 'mana', 'mas', 'karena', 'binatang', 'diciptakan']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['sampaisampai', 'kalau', 'ada', 'anjing', 'lewat', 'anak', 'maiyah', 'bergurau', 'menyapa', 'mau', 'ke', 'mana', 'mas', 'karena', 'binatang', 'diciptakan']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['suasana', 'rumah', 'duka', 'dipowinatan', 'almarhum', 'iman', 'budi', 'santosa', 'disemayamkan', 'wib', 'nant']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['suasana', 'rumah', 'duka', 'dipowinatan', 'almarhum', 'iman', 'budi', 'santosa', 'semayam', 'wib', 'nant']</t>
+          <t>['sampaisampai', 'anjing', 'anak', 'maiyah', 'bergurau', 'menyapa', 'mas', 'binatang', 'diciptakan']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['sampaisampai', 'anjing', 'anak', 'maiyah', 'gurau', 'sapa', 'mas', 'binatang', 'cipta']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>14870</v>
+        <v>30072</v>
       </c>
       <c r="C26" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">dengan rasa sangat kehilangan dan duka yang mendalam seluruh keluarga </t>
+          <t>beredar di grup whatsapp penggalan tulisan dari mbah nun agar lengkap dan jangkep baca tulisan secara utuh di</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['dengan', 'rasa', 'sangat', 'kehilangan', 'dan', 'duka', 'yang', 'mendalam', 'seluruh', 'keluarga']</t>
+          <t>['beredar', 'di', 'grup', 'whatsapp', 'penggalan', 'tulisan', 'dari', 'mbah', 'nun', 'agar', 'lengkap', 'dan', 'jangkep', 'baca', 'tulisan', 'secara', 'utuh', 'di']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['beredar', 'di', 'grup', 'whatsapp', 'penggalan', 'tulisan', 'dari', 'mbah', 'nun', 'agar', 'lengkap', 'dan', 'jangkep', 'baca', 'tulisan', 'secara', 'utuh', 'di']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['kehilangan', 'duka', 'mendalam', 'keluarga']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['hilang', 'duka', 'dalam', 'keluarga']</t>
+          <t>['beredar', 'grup', 'whatsapp', 'penggalan', 'tulisan', 'mbah', 'nun', 'lengkap', 'jangkep', 'baca', 'tulisan', 'utuh']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['edar', 'grup', 'whatsapp', 'penggal', 'tulis', 'mbah', 'nun', 'lengkap', 'jangkep', 'baca', 'tulis', 'utuh']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>14871</v>
+        <v>30073</v>
       </c>
       <c r="C27" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">pihak sekretariat cak nun sampai dengan malam ini tidak tahu menahu atas acara yang tertera pada informasi </t>
+          <t>ya hafidz ya hafidz ihfadhna ya rohman ya rohim irhamna</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['pihak', 'sekretariat', 'cak', 'nun', 'sampai', 'dengan', 'malam', 'ini', 'tidak', 'tahu', 'menahu', 'atas', 'acara', 'yang', 'tertera', 'pada', 'informasi']</t>
+          <t>['ya', 'hafidz', 'ya', 'hafidz', 'ihfadhna', 'ya', 'rohman', 'ya', 'rohim', 'irhamna']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['ya', 'hafiz', 'ya', 'hafiz', 'ihfadhna', 'ya', 'rohman', 'ya', 'rohim', 'irhamna']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['sekretariat', 'cak', 'nun', 'malam', 'menahu', 'acara', 'tertera', 'informasi']</t>
+          <t>&lt;FreqDist with 6 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['sekretariat', 'cak', 'nun', 'malam', 'nahu', 'acara', 'tera', 'informasi']</t>
+          <t>['hafiz', 'hafiz', 'ihfadhna', 'rohman', 'rohim', 'irhamna']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['hafiz', 'hafiz', 'ihfadhna', 'rohman', 'rohim', 'irhamna']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14872</v>
+        <v>30074</v>
       </c>
       <c r="C28" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>sambil menunggu presiden mengucapkan belasungkawa atas meninggalnya enam rakyatnya sekarang saatnya terjadi di</t>
+          <t>rt rahman rahim cinta puisipuisi emha ainun nadjib sebuah persembahan sebagai sedekah budaya amp kemanusiaan kep</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['sambil', 'menunggu', 'presiden', 'mengucapkan', 'belasungkawa', 'atas', 'meninggalnya', 'enam', 'rakyatnya', 'sekarang', 'saatnya', 'terjadi', 'di']</t>
+          <t>['rt', 'rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'nadjib', 'sebuah', 'persembahan', 'sebagai', 'sedekah', 'budaya', 'amp', 'kemanusiaan', 'kep']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'najib', 'sebuah', 'persembahan', 'sebagai', 'sedekah', 'budaya', 'amp', 'kemanusiaan', 'kep']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['menunggu', 'presiden', 'belasungkawa', 'meninggalnya', 'enam', 'rakyatnya']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['tunggu', 'presiden', 'belasungkawa', 'tinggal', 'enam', 'rakyat']</t>
+          <t>['rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'najib', 'persembahan', 'sedekah', 'budaya', 'kemanusiaan', 'kep']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['rahman', 'rahim', 'cinta', 'puisipuisi', 'emha', 'ainun', 'najib', 'sembah', 'sedekah', 'budaya', 'manusia', 'kep']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>14873</v>
+        <v>30075</v>
       </c>
       <c r="C29" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>disimak pelanpelan sambil ngopi juga boleh monggooo</t>
+          <t>kafirnw dicari dibuka video lengkapnya ada part di runut secara runtut agar lengkap dan jangk</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['disimak', 'pelanpelan', 'sambil', 'ngopi', 'juga', 'boleh', 'monggooo']</t>
+          <t>['kafirnw', 'dicari', 'dibuka', 'video', 'lengkapnya', 'ada', 'part', 'di', 'runut', 'secara', 'runtut', 'agar', 'lengkap', 'dan', 'jangk']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kafirnw', 'dicari', 'dibuka', 'video', 'lengkapnya', 'ada', 'part', 'di', 'runut', 'secara', 'runtut', 'agar', 'lengkap', 'dan', 'jangk']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['disimak', 'pelanpelan', 'ngopi', 'monggooo']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['simak', 'pelanpelan', 'ngopi', 'monggooo']</t>
+          <t>['kafirnw', 'dicari', 'dibuka', 'video', 'lengkapnya', 'part', 'runut', 'runtut', 'lengkap', 'jangk']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['kafirnw', 'cari', 'buka', 'video', 'lengkap', 'part', 'runut', 'runtut', 'lengkap', 'jangk']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14874</v>
+        <v>30076</v>
       </c>
       <c r="C30" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>seperti biasa simak secara lengkap ndak usah buruburu durasi pendek kok monggooo</t>
+          <t>live hujan kopi telo dan kacang rebus keroncongan bersama mbah nun dan kiaikanjeng monggoooo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['seperti', 'biasa', 'simak', 'secara', 'lengkap', 'ndak', 'usah', 'buruburu', 'durasi', 'pendek', 'kok', 'monggooo']</t>
+          <t>['live', 'hujan', 'kopi', 'telo', 'dan', 'kacang', 'rebus', 'keroncongan', 'bersama', 'mbah', 'nun', 'dan', 'kiaikanjeng', 'monggoooo']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['live', 'hujan', 'kopi', 'telo', 'dan', 'kacang', 'rebus', 'keroncongan', 'bersama', 'mbah', 'nun', 'dan', 'kiaikanjeng', 'monggoooo']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['simak', 'lengkap', 'ndak', 'buruburu', 'durasi', 'pendek', 'monggooo']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['simak', 'lengkap', 'ndak', 'buruburu', 'durasi', 'pendek', 'monggooo']</t>
+          <t>['live', 'hujan', 'kopi', 'telo', 'kacang', 'rebus', 'keroncongan', 'mbah', 'nun', 'kiaikanjeng', 'monggoooo']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['live', 'hujan', 'kopi', 'telo', 'kacang', 'rebus', 'keroncong', 'mbah', 'nun', 'kiaikanjeng', 'monggoooo']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14875</v>
+        <v>30077</v>
       </c>
       <c r="C31" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>yang sedang kita lalui sekarang ini adalah harihari yang sedang sangat rawanrawannya bagi kehidupan hati nurani</t>
+          <t>tapi yang berlangsung sekarang ini adalah perang kebusukan mulut perang kefasikan narasi perang kepengecutan per</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['yang', 'sedang', 'kita', 'lalui', 'sekarang', 'ini', 'adalah', 'harihari', 'yang', 'sedang', 'sangat', 'rawanrawannya', 'bagi', 'kehidupan', 'hati', 'nurani']</t>
+          <t>['tapi', 'yang', 'berlangsung', 'sekarang', 'ini', 'adalah', 'perang', 'kebusukan', 'mulut', 'perang', 'kefasikan', 'narasi', 'perang', 'kepengecutan', 'per']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['tapi', 'yang', 'berlangsung', 'sekarang', 'ini', 'adalah', 'perang', 'kebusukan', 'mulut', 'perang', 'kefasikan', 'narasi', 'perang', 'kepengecutan', 'per']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['lalui', 'harihari', 'rawanrawannya', 'kehidupan', 'hati', 'nurani']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['lalu', 'harihari', 'rawanrawannya', 'hidup', 'hati', 'nurani']</t>
+          <t>['perang', 'kebusukan', 'mulut', 'perang', 'kefasikan', 'narasi', 'perang', 'kepengecutan']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['perang', 'busuk', 'mulut', 'perang', 'fasik', 'narasi', 'perang', 'kecut']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14876</v>
+        <v>30078</v>
       </c>
       <c r="C32" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>disimak sampai selesai supaya lengkap dan jangkep</t>
+          <t>ternyata sastra lebih meriah tribute iman budi santosa</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['disimak', 'sampai', 'selesai', 'supaya', 'lengkap', 'dan', 'jangkep']</t>
+          <t>['ternyata', 'sastra', 'lebih', 'meriah', 'tribute', 'iman', 'budi', 'santosa']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['ternyata', 'sastra', 'lebih', 'meriah', 'tribute', 'iman', 'budi', 'santosa']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['disimak', 'selesai', 'lengkap', 'jangkep']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['simak', 'selesai', 'lengkap', 'jangkep']</t>
+          <t>['sastra', 'meriah', 'tribute', 'iman', 'budi', 'santosa']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['sastra', 'riah', 'tribute', 'iman', 'budi', 'santosa']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>14877</v>
+        <v>30079</v>
       </c>
       <c r="C33" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>memang shalat bisa dikontekstualisasikan menjadi jihad bahkan menjadi qital atau harb jadi bunyinya bisa hayya</t>
+          <t>prosesi pemakaman bapak iman budi santosa di makam seniman girisapto imogiri yogyakarta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['memang', 'shalat', 'bisa', 'dikontekstualisasikan', 'menjadi', 'jihad', 'bahkan', 'menjadi', 'qital', 'atau', 'harb', 'jadi', 'bunyinya', 'bisa', 'hayya']</t>
+          <t>['prosesi', 'pemakaman', 'bapak', 'iman', 'budi', 'santosa', 'di', 'makam', 'seniman', 'girisapto', 'imogiri', 'yogyakarta']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['prosesi', 'pemakaman', 'bapak', 'iman', 'budi', 'santosa', 'di', 'makam', 'seniman', 'girisapto', 'imogiri', 'yogyakarta']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['shalat', 'dikontekstualisasikan', 'jihad', 'qital', 'harb', 'bunyinya', 'hayya']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['shalat', 'dikontekstualisasikan', 'jihad', 'qital', 'harb', 'bunyi', 'hayya']</t>
+          <t>['prosesi', 'pemakaman', 'iman', 'budi', 'santosa', 'makam', 'seniman', 'girisapto', 'imogiri', 'yogyakarta']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['prosesi', 'makam', 'iman', 'budi', 'santosa', 'makam', 'seniman', 'girisapto', 'imogiri', 'yogyakarta']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>14878</v>
+        <v>30080</v>
       </c>
       <c r="C34" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>saya nulis buku lebih dan itu hanya kata saya</t>
+          <t>suasana di rumah duka dipowinatan tempat almarhum pak iman budi santosa disemayamkan sebelum pukul wib nant</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['saya', 'nulis', 'buku', 'lebih', 'dan', 'itu', 'hanya', 'kata', 'saya']</t>
+          <t>['suasana', 'di', 'rumah', 'duka', 'dipowinatan', 'tempat', 'almarhum', 'pak', 'iman', 'budi', 'santosa', 'disemayamkan', 'sebelum', 'pukul', 'wib', 'nant']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['suasana', 'di', 'rumah', 'duka', 'dipowinatan', 'tempat', 'almarhum', 'pak', 'iman', 'budi', 'santosa', 'disemayamkan', 'sebelum', 'pukul', 'waktu, indonesia, bagian, barat', 'nant']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['nulis', 'buku']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['nulis', 'buku']</t>
+          <t>['suasana', 'rumah', 'duka', 'dipowinatan', 'almarhum', 'iman', 'budi', 'santosa', 'disemayamkan', 'waktu, indonesia, bagian, barat', 'nant']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['suasana', 'rumah', 'duka', 'dipowinatan', 'almarhum', 'iman', 'budi', 'santosa', 'semayam', 'waktu indonesia bagi barat', 'nant']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>14879</v>
+        <v>30081</v>
       </c>
       <c r="C35" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>yang selalu ditunggu adalah bintang nuur dan bukan roberto baggio bukan bebeto maradona atau scifo</t>
+          <t xml:space="preserve">dengan rasa sangat kehilangan dan duka yang mendalam seluruh keluarga </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['yang', 'selalu', 'ditunggu', 'adalah', 'bintang', 'nuur', 'dan', 'bukan', 'roberto', 'baggio', 'bukan', 'bebeto', 'maradona', 'atau', 'scifo']</t>
+          <t>['dengan', 'rasa', 'sangat', 'kehilangan', 'dan', 'duka', 'yang', 'mendalam', 'seluruh', 'keluarga']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['dengan', 'rasa', 'sangat', 'kehilangan', 'dan', 'duka', 'yang', 'mendalam', 'seluruh', 'keluarga']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['ditunggu', 'bintang', 'nuur', 'roberto', 'baggio', 'bebeto', 'maradona', 'scifo']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['tunggu', 'bintang', 'nuur', 'roberto', 'baggio', 'bebeto', 'maradona', 'scifo']</t>
+          <t>['kehilangan', 'duka', 'mendalam', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['hilang', 'duka', 'dalam', 'keluarga']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>14880</v>
+        <v>30082</v>
       </c>
       <c r="C36" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>album atau album kado muhammad saja</t>
+          <t xml:space="preserve">pihak sekretariat cak nun sampai dengan malam ini tidak tahu menahu atas acara yang tertera pada informasi </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['album', 'atau', 'album', 'kado', 'muhammad', 'saja']</t>
+          <t>['pihak', 'sekretariat', 'cak', 'nun', 'sampai', 'dengan', 'malam', 'ini', 'tidak', 'tahu', 'menahu', 'atas', 'acara', 'yang', 'tertera', 'pada', 'informasi']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['pihak', 'sekretariat', 'cak', 'nun', 'sampai', 'dengan', 'malam', 'ini', 'tidak', 'tahu', 'menahu', 'atas', 'acara', 'yang', 'tertera', 'pada', 'informasi']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['album', 'album', 'kado', 'muhammad']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['album', 'album', 'kado', 'muhammad']</t>
+          <t>['sekretariat', 'cak', 'nun', 'malam', 'menahu', 'acara', 'tertera', 'informasi']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['sekretariat', 'cak', 'nun', 'malam', 'nahu', 'acara', 'tera', 'informasi']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14881</v>
+        <v>30083</v>
       </c>
       <c r="C37" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt store proses evolusi manusia fase akan dimulai kembali setelah manusia sudah bisa mengatasi hambatan kecepat</t>
+          <t>sambil menunggu presiden mengucapkan belasungkawa atas meninggalnya enam rakyatnya sekarang saatnya terjadi di</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'store', 'proses', 'evolusi', 'manusia', 'fase', 'akan', 'dimulai', 'kembali', 'setelah', 'manusia', 'sudah', 'bisa', 'mengatasi', 'hambatan', 'kecepat']</t>
+          <t>['sambil', 'menunggu', 'presiden', 'mengucapkan', 'belasungkawa', 'atas', 'meninggalnya', 'enam', 'rakyatnya', 'sekarang', 'saatnya', 'terjadi', 'di']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['sambil', 'menunggu', 'presiden', 'mengucapkan', 'belasungkawa', 'atas', 'meninggalnya', 'enam', 'rakyatnya', 'sekarang', 'saatnya', 'terjadi', 'di']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['store', 'proses', 'evolusi', 'manusia', 'fase', 'manusia', 'mengatasi', 'hambatan', 'kecepat']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['store', 'proses', 'evolusi', 'manusia', 'fase', 'manusia', 'atas', 'hambat', 'cepat']</t>
+          <t>['menunggu', 'presiden', 'belasungkawa', 'meninggalnya', 'enam', 'rakyatnya']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['tunggu', 'presiden', 'belasungkawa', 'tinggal', 'enam', 'rakyat']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>14882</v>
+        <v>30084</v>
       </c>
       <c r="C38" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>rt selamat hari guru mbah mbah gus dur simbah kakung mbah mbah nun ht</t>
+          <t>disimak pelanpelan sambil ngopi juga boleh monggooo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'hari', 'guru', 'mbah', 'mbah', 'gus', 'dur', 'simbah', 'kakung', 'mbah', 'mbah', 'nun', 'ht']</t>
+          <t>['disimak', 'pelanpelan', 'sambil', 'ngopi', 'juga', 'boleh', 'monggooo']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
+          <t>['disimak', 'pelanpelan', 'sambil', 'minum, kopi', 'juga', 'boleh', 'monggooo']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['selamat', 'guru', 'mbah', 'mbah', 'gus', 'dur', 'simbah', 'kakung', 'mbah', 'mbah', 'nun', 'ht']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['selamat', 'guru', 'mbah', 'mbah', 'gus', 'dur', 'simbah', 'kakung', 'mbah', 'mbah', 'nun', 'ht']</t>
+          <t>['disimak', 'pelanpelan', 'minum, kopi', 'monggooo']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['simak', 'pelanpelan', 'minum kopi', 'monggooo']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14883</v>
+        <v>30085</v>
       </c>
       <c r="C39" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>kc ya coba nanti kita cari arsipnya</t>
+          <t>seperti biasa simak secara lengkap ndak usah buruburu durasi pendek kok monggooo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['kc', 'ya', 'coba', 'nanti', 'kita', 'cari', 'arsipnya']</t>
+          <t>['seperti', 'biasa', 'simak', 'secara', 'lengkap', 'ndak', 'usah', 'buruburu', 'durasi', 'pendek', 'kok', 'monggooo']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['seperti', 'biasa', 'simak', 'secara', 'lengkap', 'tidak', 'usah', 'buruburu', 'durasi', 'pendek', 'kok', 'monggooo']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['kc', 'coba', 'cari', 'arsipnya']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['kc', 'coba', 'cari', 'arsip']</t>
+          <t>['simak', 'lengkap', 'buruburu', 'durasi', 'pendek', 'monggooo']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['simak', 'lengkap', 'buruburu', 'durasi', 'pendek', 'monggooo']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>14884</v>
+        <v>30086</v>
       </c>
       <c r="C40" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>tapi kita insya allah tidak edan namun justru karena itu maka kita tampak edan secangkir kopi jon parkir</t>
+          <t>yang sedang kita lalui sekarang ini adalah harihari yang sedang sangat rawanrawannya bagi kehidupan hati nurani</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['tapi', 'kita', 'insya', 'allah', 'tidak', 'edan', 'namun', 'justru', 'karena', 'itu', 'maka', 'kita', 'tampak', 'edan', 'secangkir', 'kopi', 'jon', 'parkir']</t>
+          <t>['yang', 'sedang', 'kita', 'lalui', 'sekarang', 'ini', 'adalah', 'harihari', 'yang', 'sedang', 'sangat', 'rawanrawannya', 'bagi', 'kehidupan', 'hati', 'nurani']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['yang', 'sedang', 'kita', 'lalui', 'sekarang', 'ini', 'adalah', 'harihari', 'yang', 'sedang', 'sangat', 'rawanrawannya', 'bagi', 'kehidupan', 'hati', 'nurani']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['insya', 'allah', 'edan', 'edan', 'secangkir', 'kopi', 'jon', 'parkir']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['insya', 'allah', 'edan', 'edan', 'cangkir', 'kopi', 'jon', 'parkir']</t>
+          <t>['lalui', 'harihari', 'rawanrawannya', 'kehidupan', 'hati', 'nurani']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['lalu', 'harihari', 'rawanrawannya', 'hidup', 'hati', 'nurani']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>14885</v>
+        <v>30087</v>
       </c>
       <c r="C41" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>kau pikir kau raja diraja padahal esok pagi sirna</t>
+          <t>disimak sampai selesai supaya lengkap dan jangkep</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['kau', 'pikir', 'kau', 'raja', 'diraja', 'padahal', 'esok', 'pagi', 'sirna']</t>
+          <t>['disimak', 'sampai', 'selesai', 'supaya', 'lengkap', 'dan', 'jangkep']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['disimak', 'sampai', 'selesai', 'supaya', 'lengkap', 'dan', 'jangkep']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['kau', 'pikir', 'kau', 'raja', 'diraja', 'esok', 'pagi', 'sirna']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['kau', 'pikir', 'kau', 'raja', 'diraja', 'esok', 'pagi', 'sirna']</t>
+          <t>['disimak', 'selesai', 'lengkap', 'jangkep']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['simak', 'selesai', 'lengkap', 'jangkep']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>14886</v>
+        <v>30088</v>
       </c>
       <c r="C42" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>versi lengkap part cak nun merespons keadaan zaman</t>
+          <t>memang shalat bisa dikontekstualisasikan menjadi jihad bahkan menjadi qital atau harb jadi bunyinya bisa hayya</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'merespons', 'keadaan', 'zaman']</t>
+          <t>['memang', 'shalat', 'bisa', 'dikontekstualisasikan', 'menjadi', 'jihad', 'bahkan', 'menjadi', 'qital', 'atau', 'harb', 'jadi', 'bunyinya', 'bisa', 'hayya']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['memang', 'salat', 'bisa', 'dikontekstualisasikan', 'menjadi', 'jihad', 'bahkan', 'menjadi', 'qital', 'atau', 'harb', 'jadi', 'bunyinya', 'bisa', 'hayya']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'merespons', 'zaman']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'respons', 'zaman']</t>
+          <t>['salat', 'dikontekstualisasikan', 'jihad', 'qital', 'harb', 'bunyinya', 'hayya']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['salat', 'dikontekstualisasikan', 'jihad', 'qital', 'harb', 'bunyi', 'hayya']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14887</v>
+        <v>30089</v>
       </c>
       <c r="C43" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>versi lengkap part cak nun merespons keadaan zaman</t>
+          <t>saya nulis buku lebih dan itu hanya kata saya</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'merespons', 'keadaan', 'zaman']</t>
+          <t>['saya', 'nulis', 'buku', 'lebih', 'dan', 'itu', 'hanya', 'kata', 'saya']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['saya', 'menulis', 'buku', 'lebih', 'dan', 'itu', 'hanya', 'kata', 'saya']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'merespons', 'zaman']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'respons', 'zaman']</t>
+          <t>['menulis', 'buku']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['tulis', 'buku']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14888</v>
+        <v>30090</v>
       </c>
       <c r="C44" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>aku ajak engkau menjernihkan fikiran untuk menata hati menemukan kesalahankesalahan kita semua untuk tidak kita</t>
+          <t>yang selalu ditunggu adalah bintang nuur dan bukan roberto baggio bukan bebeto maradona atau scifo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['aku', 'ajak', 'engkau', 'menjernihkan', 'fikiran', 'untuk', 'menata', 'hati', 'menemukan', 'kesalahankesalahan', 'kita', 'semua', 'untuk', 'tidak', 'kita']</t>
+          <t>['yang', 'selalu', 'ditunggu', 'adalah', 'bintang', 'nuur', 'dan', 'bukan', 'roberto', 'baggio', 'bukan', 'bebeto', 'maradona', 'atau', 'scifo']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['yang', 'selalu', 'ditunggu', 'adalah', 'bintang', 'nuur', 'dan', 'bukan', 'roberto', 'baggio', 'bukan', 'bebeto', 'maradona', 'atau', 'scifo']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['ajak', 'engkau', 'menjernihkan', 'fikiran', 'menata', 'hati', 'menemukan', 'kesalahankesalahan']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['ajak', 'engkau', 'jernih', 'fikiran', 'tata', 'hati', 'temu', 'kesalahankesalahan']</t>
+          <t>['ditunggu', 'bintang', 'nuur', 'roberto', 'baggio', 'bebeto', 'maradona', 'scifo']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['tunggu', 'bintang', 'nuur', 'roberto', 'baggio', 'bebeto', 'maradona', 'scifo']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>14889</v>
+        <v>30091</v>
       </c>
       <c r="C45" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>tidak sekadar untuk mempertahankan diri atau membela kelompoknya melainkan untuk menyerang kelompok lainnya ia me</t>
+          <t>album atau album kado muhammad saja</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['tidak', 'sekadar', 'untuk', 'mempertahankan', 'diri', 'atau', 'membela', 'kelompoknya', 'melainkan', 'untuk', 'menyerang', 'kelompok', 'lainnya', 'ia', 'me']</t>
+          <t>['album', 'atau', 'album', 'kado', 'muhammad', 'saja']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['album', 'atau', 'album', 'kado', 'muhammad', 'saja']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['mempertahankan', 'membela', 'kelompoknya', 'menyerang', 'kelompok', 'me']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['tahan', 'bela', 'kelompok', 'serang', 'kelompok', 'me']</t>
+          <t>['album', 'album', 'kado', 'muhammad']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['album', 'album', 'kado', 'muhammad']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>14890</v>
+        <v>30092</v>
       </c>
       <c r="C46" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>apa saya disantet</t>
+          <t>rt store proses evolusi manusia fase akan dimulai kembali setelah manusia sudah bisa mengatasi hambatan kecepat</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['apa', 'saya', 'disantet']</t>
+          <t>['rt', 'store', 'proses', 'evolusi', 'manusia', 'fase', 'akan', 'dimulai', 'kembali', 'setelah', 'manusia', 'sudah', 'bisa', 'mengatasi', 'hambatan', 'kecepat']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'store', 'proses', 'evolusi', 'manusia', 'fase', 'akan', 'dimulai', 'kembali', 'setelah', 'manusia', 'sudah', 'bisa', 'mengatasi', 'hambatan', 'kecepatan']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['disantet']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['santet']</t>
+          <t>['store', 'proses', 'evolusi', 'manusia', 'fase', 'manusia', 'mengatasi', 'hambatan', 'kecepatan']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['store', 'proses', 'evolusi', 'manusia', 'fase', 'manusia', 'atas', 'hambat', 'cepat']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>14891</v>
+        <v>30093</v>
       </c>
       <c r="C47" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>mbah nun tidak punya akun medsos pribadi di manapun coba di baca</t>
+          <t>rt selamat hari guru mbah mbah gus dur simbah kakung mbah mbah nun ht</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['mbah', 'nun', 'tidak', 'punya', 'akun', 'medsos', 'pribadi', 'di', 'manapun', 'coba', 'di', 'baca']</t>
+          <t>['rt', 'selamat', 'hari', 'guru', 'mbah', 'mbah', 'gus', 'dur', 'simbah', 'kakung', 'mbah', 'mbah', 'nun', 'ht']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'hari', 'guru', 'mbah', 'mbah', 'gus', 'dur', 'simbah', 'kakung', 'mbah', 'mbah', 'nun', 'hati']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['mbah', 'nun', 'akun', 'medsos', 'pribadi', 'manapun', 'coba', 'baca']</t>
+          <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['mbah', 'nun', 'akun', 'medsos', 'pribadi', 'mana', 'coba', 'baca']</t>
+          <t>['selamat', 'guru', 'mbah', 'mbah', 'gus', 'dur', 'simbah', 'kakung', 'mbah', 'mbah', 'nun', 'hati']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['selamat', 'guru', 'mbah', 'mbah', 'gus', 'dur', 'simbah', 'kakung', 'mbah', 'mbah', 'nun', 'hati']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>14892</v>
+        <v>30094</v>
       </c>
       <c r="C48" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>biasa cari video originalnya yang durasi lengkap agar lengkap juga pemahamannya jangkep asal usul dan kro</t>
+          <t>kc ya coba nanti kita cari arsipnya</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['biasa', 'cari', 'video', 'originalnya', 'yang', 'durasi', 'lengkap', 'agar', 'lengkap', 'juga', 'pemahamannya', 'jangkep', 'asal', 'usul', 'dan', 'kro']</t>
+          <t>['kc', 'ya', 'coba', 'nanti', 'kita', 'cari', 'arsipnya']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['kc', 'ya', 'coba', 'nanti', 'kita', 'cari', 'arsipnya']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['cari', 'video', 'originalnya', 'durasi', 'lengkap', 'lengkap', 'pemahamannya', 'jangkep', 'usul', 'kro']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['cari', 'video', 'originalnya', 'durasi', 'lengkap', 'lengkap', 'paham', 'jangkep', 'usul', 'kro']</t>
+          <t>['kc', 'coba', 'cari', 'arsipnya']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['kc', 'coba', 'cari', 'arsip']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>14893</v>
+        <v>30095</v>
       </c>
       <c r="C49" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">perang yang perlu dilakukan sekarang adalah perang terhadap ketidaktahuanmu bahwa dirimu masih dalam penjara dan </t>
+          <t>tapi kita insya allah tidak edan namun justru karena itu maka kita tampak edan secangkir kopi jon parkir</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['perang', 'yang', 'perlu', 'dilakukan', 'sekarang', 'adalah', 'perang', 'terhadap', 'ketidaktahuanmu', 'bahwa', 'dirimu', 'masih', 'dalam', 'penjara', 'dan']</t>
+          <t>['tapi', 'kita', 'insya', 'allah', 'tidak', 'edan', 'namun', 'justru', 'karena', 'itu', 'maka', 'kita', 'tampak', 'edan', 'secangkir', 'kopi', 'jon', 'parkir']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['tapi', 'kita', 'insya', 'allah', 'tidak', 'edan', 'namun', 'justru', 'karena', 'itu', 'maka', 'kita', 'tampak', 'edan', 'secangkir', 'kopi', 'jon', 'parkir']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['perang', 'perang', 'ketidaktahuanmu', 'dirimu', 'penjara']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['perang', 'perang', 'ketidaktahuanmu', 'diri', 'penjara']</t>
+          <t>['insya', 'allah', 'edan', 'edan', 'secangkir', 'kopi', 'jon', 'parkir']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['insya', 'allah', 'edan', 'edan', 'cangkir', 'kopi', 'jon', 'parkir']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>14894</v>
+        <v>30096</v>
       </c>
       <c r="C50" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ingat salah satu pesan mbah nun tidak semua hal harus kita ketahui bersyukurlah dengan ketidaktahuan kita</t>
+          <t>kau pikir kau raja diraja padahal esok pagi sirna</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['ingat', 'salah', 'satu', 'pesan', 'mbah', 'nun', 'tidak', 'semua', 'hal', 'harus', 'kita', 'ketahui', 'bersyukurlah', 'dengan', 'ketidaktahuan', 'kita']</t>
+          <t>['kau', 'pikir', 'kau', 'raja', 'diraja', 'padahal', 'esok', 'pagi', 'sirna']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['kamu', 'pikir', 'kamu', 'raja', 'diraja', 'padahal', 'esok', 'pagi', 'sirna']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['salah', 'pesan', 'mbah', 'nun', 'ketahui', 'bersyukurlah', 'ketidaktahuan']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['salah', 'pesan', 'mbah', 'nun', 'tahu', 'syukur', 'ketidaktahuan']</t>
+          <t>['pikir', 'raja', 'diraja', 'esok', 'pagi', 'sirna']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['pikir', 'raja', 'diraja', 'esok', 'pagi', 'sirna']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>14895</v>
+        <v>30097</v>
       </c>
       <c r="C51" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>is iya mas foto oleh adin dok progress dipublish di ig</t>
+          <t>versi lengkap part cak nun merespons keadaan zaman</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['is', 'iya', 'mas', 'foto', 'oleh', 'adin', 'dok', 'progress', 'dipublish', 'di', 'ig']</t>
+          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'merespons', 'keadaan', 'zaman']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'merespons', 'keadaan', 'zaman']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['is', 'iya', 'mas', 'foto', 'adin', 'dok', 'progress', 'dipublish', 'ig']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['is', 'iya', 'mas', 'foto', 'adin', 'dok', 'progress', 'dipublish', 'ig']</t>
+          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'merespons', 'zaman']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'respons', 'zaman']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>14896</v>
+        <v>30098</v>
       </c>
       <c r="C52" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>rt ayem banget nyawang foto iki</t>
+          <t>versi lengkap part cak nun merespons keadaan zaman</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['rt', 'ayem', 'banget', 'nyawang', 'foto', 'iki']</t>
+          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'merespons', 'keadaan', 'zaman']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'merespons', 'keadaan', 'zaman']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['ayem', 'banget', 'nyawang', 'foto', 'iki']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['ayem', 'banget', 'nyawang', 'foto', 'iki']</t>
+          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'merespons', 'zaman']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['versi', 'lengkap', 'part', 'cak', 'nun', 'respons', 'zaman']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>14897</v>
+        <v>30099</v>
       </c>
       <c r="C53" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>hm dalam kondisi normal jadwal bisa di cek di baca catatan di halaman te</t>
+          <t>aku ajak engkau menjernihkan fikiran untuk menata hati menemukan kesalahankesalahan kita semua untuk tidak kita</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['hm', 'dalam', 'kondisi', 'normal', 'jadwal', 'bisa', 'di', 'cek', 'di', 'baca', 'catatan', 'di', 'halaman', 'te']</t>
+          <t>['aku', 'ajak', 'engkau', 'menjernihkan', 'fikiran', 'untuk', 'menata', 'hati', 'menemukan', 'kesalahankesalahan', 'kita', 'semua', 'untuk', 'tidak', 'kita']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
+          <t>['aku', 'ajak', 'engkau', 'menjernihkan', 'pikiran', 'untuk', 'menata', 'hati', 'menemukan', 'kesalahankesalahan', 'kita', 'semua', 'untuk', 'tidak', 'kita']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['hm', 'kondisi', 'normal', 'jadwal', 'cek', 'baca', 'catatan', 'halaman', 'te']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['hm', 'kondisi', 'normal', 'jadwal', 'cek', 'baca', 'catat', 'halaman', 'te']</t>
+          <t>['ajak', 'engkau', 'menjernihkan', 'pikiran', 'menata', 'hati', 'menemukan', 'kesalahankesalahan']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['ajak', 'engkau', 'jernih', 'pikir', 'tata', 'hati', 'temu', 'kesalahankesalahan']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>14898</v>
+        <v>30100</v>
       </c>
       <c r="C54" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt ramaikan preordernya yang berlangsung hingga tanggal november ok spesial dari mintang untuk merayakan buku</t>
+          <t>tidak sekadar untuk mempertahankan diri atau membela kelompoknya melainkan untuk menyerang kelompok lainnya ia me</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'ramaikan', 'preordernya', 'yang', 'berlangsung', 'hingga', 'tanggal', 'november', 'ok', 'spesial', 'dari', 'mintang', 'untuk', 'merayakan', 'buku']</t>
+          <t>['tidak', 'sekadar', 'untuk', 'mempertahankan', 'diri', 'atau', 'membela', 'kelompoknya', 'melainkan', 'untuk', 'menyerang', 'kelompok', 'lainnya', 'ia', 'me']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['tidak', 'sekadar', 'untuk', 'mempertahankan', 'diri', 'atau', 'membela', 'kelompoknya', 'melainkan', 'untuk', 'menyerang', 'kelompok', 'lainnya', 'ia', 'me']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['ramaikan', 'preordernya', 'tanggal', 'november', 'ok', 'spesial', 'mintang', 'merayakan', 'buku']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['ramai', 'preordernya', 'tanggal', 'november', 'ok', 'spesial', 'mintang', 'raya', 'buku']</t>
+          <t>['mempertahankan', 'membela', 'kelompoknya', 'menyerang', 'kelompok', 'me']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['tahan', 'bela', 'kelompok', 'serang', 'kelompok', 'me']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>14899</v>
+        <v>30101</v>
       </c>
       <c r="C55" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>rt mari kita kaji bersama dalam buku klasik cak nun yang berjudul preorder november</t>
+          <t>apa saya disantet</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['rt', 'mari', 'kita', 'kaji', 'bersama', 'dalam', 'buku', 'klasik', 'cak', 'nun', 'yang', 'berjudul', 'preorder', 'november']</t>
+          <t>['apa', 'saya', 'disantet']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['apa', 'saya', 'disantet']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['mari', 'kaji', 'buku', 'klasik', 'cak', 'nun', 'berjudul', 'preorder', 'november']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['mari', 'kaji', 'buku', 'klasik', 'cak', 'nun', 'judul', 'preorder', 'november']</t>
+          <t>['disantet']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['santet']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>14900</v>
+        <v>30102</v>
       </c>
       <c r="C56" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>inna lillahi wa inna ilaihi rojiun donya mung ngeterke tekan pecate nyawa ananging derma nggandeng manungsa te</t>
+          <t>mbah nun tidak punya akun medsos pribadi di manapun coba di baca</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'donya', 'mung', 'ngeterke', 'tekan', 'pecate', 'nyawa', 'ananging', 'derma', 'nggandeng', 'manungsa', 'te']</t>
+          <t>['mbah', 'nun', 'tidak', 'punya', 'akun', 'medsos', 'pribadi', 'di', 'manapun', 'coba', 'di', 'baca']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['mbah', 'nun', 'tidak', 'punya', 'akun', 'media, sosial', 'pribadi', 'di', 'manapun', 'coba', 'di', 'baca']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'donya', 'mung', 'ngeterke', 'tekan', 'pecate', 'nyawa', 'ananging', 'derma', 'nggandeng', 'manungsa', 'te']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'donya', 'mung', 'ngeterke', 'tekan', 'pecate', 'nyawa', 'ananging', 'derma', 'nggandeng', 'manungsa', 'te']</t>
+          <t>['mbah', 'nun', 'akun', 'media, sosial', 'pribadi', 'manapun', 'coba', 'baca']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['mbah', 'nun', 'akun', 'media sosial', 'pribadi', 'mana', 'coba', 'baca']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>14901</v>
+        <v>30103</v>
       </c>
       <c r="C57" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rt nantikan buku dari emha ainun nadjib kumpulan esai yang dituangkan ke dalam buku indonesia bagian dari desa saya si</t>
+          <t>biasa cari video originalnya yang durasi lengkap agar lengkap juga pemahamannya jangkep asal usul dan kro</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['rt', 'nantikan', 'buku', 'dari', 'emha', 'ainun', 'nadjib', 'kumpulan', 'esai', 'yang', 'dituangkan', 'ke', 'dalam', 'buku', 'indonesia', 'bagian', 'dari', 'desa', 'saya', 'si']</t>
+          <t>['biasa', 'cari', 'video', 'originalnya', 'yang', 'durasi', 'lengkap', 'agar', 'lengkap', 'juga', 'pemahamannya', 'jangkep', 'asal', 'usul', 'dan', 'kro']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['biasa', 'cari', 'video', 'originalnya', 'yang', 'durasi', 'lengkap', 'agar', 'lengkap', 'juga', 'pemahamannya', 'jangkep', 'asal', 'usul', 'dan', 'kro']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['nantikan', 'buku', 'emha', 'ainun', 'nadjib', 'kumpulan', 'esai', 'dituangkan', 'buku', 'indonesia', 'desa']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['nanti', 'buku', 'emha', 'ainun', 'nadjib', 'kumpul', 'esai', 'tuang', 'buku', 'indonesia', 'desa']</t>
+          <t>['cari', 'video', 'originalnya', 'durasi', 'lengkap', 'lengkap', 'pemahamannya', 'jangkep', 'usul', 'kro']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['cari', 'video', 'originalnya', 'durasi', 'lengkap', 'lengkap', 'paham', 'jangkep', 'usul', 'kro']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>14902</v>
+        <v>30104</v>
       </c>
       <c r="C58" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>rt kita perlu untuk memperbaiki diri lingkungan dan peradaban sosial agar tak tergerus oleh zaman halhal kecil kebaika</t>
+          <t xml:space="preserve">perang yang perlu dilakukan sekarang adalah perang terhadap ketidaktahuanmu bahwa dirimu masih dalam penjara dan </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['rt', 'kita', 'perlu', 'untuk', 'memperbaiki', 'diri', 'lingkungan', 'dan', 'peradaban', 'sosial', 'agar', 'tak', 'tergerus', 'oleh', 'zaman', 'halhal', 'kecil', 'kebaika']</t>
+          <t>['perang', 'yang', 'perlu', 'dilakukan', 'sekarang', 'adalah', 'perang', 'terhadap', 'ketidaktahuanmu', 'bahwa', 'dirimu', 'masih', 'dalam', 'penjara', 'dan']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['perang', 'yang', 'perlu', 'dilakukan', 'sekarang', 'adalah', 'perang', 'terhadap', 'ketidaktahuanmu', 'bahwa', 'dirimu', 'masih', 'dalam', 'penjara', 'dan']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['memperbaiki', 'lingkungan', 'peradaban', 'sosial', 'tergerus', 'zaman', 'halhal', 'kebaika']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['baik', 'lingkung', 'adab', 'sosial', 'gerus', 'zaman', 'halhal', 'kebaika']</t>
+          <t>['perang', 'perang', 'ketidaktahuanmu', 'dirimu', 'penjara']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['perang', 'perang', 'ketidaktahuanmu', 'diri', 'penjara']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>14903</v>
+        <v>30105</v>
       </c>
       <c r="C59" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ya shalat ya maksiat</t>
+          <t>ingat salah satu pesan mbah nun tidak semua hal harus kita ketahui bersyukurlah dengan ketidaktahuan kita</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['ya', 'shalat', 'ya', 'maksiat']</t>
+          <t>['ingat', 'salah', 'satu', 'pesan', 'mbah', 'nun', 'tidak', 'semua', 'hal', 'harus', 'kita', 'ketahui', 'bersyukurlah', 'dengan', 'ketidaktahuan', 'kita']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+          <t>['ingat', 'salah', 'satu', 'pesan', 'mbah', 'nun', 'tidak', 'semua', 'hal', 'harus', 'kita', 'ketahui', 'bersyukurlah', 'dengan', 'ketidaktahuan', 'kita']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['shalat', 'maksiat']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['shalat', 'maksiat']</t>
+          <t>['salah', 'pesan', 'mbah', 'nun', 'ketahui', 'bersyukurlah', 'ketidaktahuan']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['salah', 'pesan', 'mbah', 'nun', 'tahu', 'syukur', 'ketidaktahuan']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>14904</v>
+        <v>30106</v>
       </c>
       <c r="C60" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>malaikat demokrasi</t>
+          <t>is iya mas foto oleh adin dok progress dipublish di ig</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['malaikat', 'demokrasi']</t>
+          <t>['is', 'iya', 'mas', 'foto', 'oleh', 'adin', 'dok', 'progress', 'dipublish', 'di', 'ig']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['is', 'iya', 'mas', 'foto', 'oleh', 'adin', 'dok', 'progress', 'dipublish', 'di', 'instagram']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['malaikat', 'demokrasi']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['malaikat', 'demokrasi']</t>
+          <t>['is', 'iya', 'mas', 'foto', 'adin', 'dok', 'progress', 'dipublish', 'instagram']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['is', 'iya', 'mas', 'foto', 'adin', 'dok', 'progress', 'dipublish', 'instagram']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>14905</v>
+        <v>30107</v>
       </c>
       <c r="C61" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>mustahil ada pilkada</t>
+          <t>rt ayem banget nyawang foto iki</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['mustahil', 'ada', 'pilkada']</t>
+          <t>['rt', 'ayem', 'banget', 'nyawang', 'foto', 'iki']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'ayem', 'banget', 'nyawang', 'foto', 'ini']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['mustahil', 'pilkada']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['mustahil', 'pilkada']</t>
+          <t>['ayem', 'banget', 'nyawang', 'foto']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['ayem', 'banget', 'nyawang', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>14906</v>
+        <v>30108</v>
       </c>
       <c r="C62" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>live nyenyuwun vaksin syafaat shalawat tetes kelembutan muhammad</t>
+          <t>hm dalam kondisi normal jadwal bisa di cek di baca catatan di halaman te</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['live', 'nyenyuwun', 'vaksin', 'syafaat', 'shalawat', 'tetes', 'kelembutan', 'muhammad']</t>
+          <t>['hm', 'dalam', 'kondisi', 'normal', 'jadwal', 'bisa', 'di', 'cek', 'di', 'baca', 'catatan', 'di', 'halaman', 'te']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['hem', 'dalam', 'kondisi', 'normal', 'jadwal', 'bisa', 'di', 'cek', 'di', 'baca', 'catatan', 'di', 'halaman', 'te']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['live', 'nyenyuwun', 'vaksin', 'syafaat', 'shalawat', 'tetes', 'kelembutan', 'muhammad']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['live', 'nyenyuwun', 'vaksin', 'syafaat', 'shalawat', 'tetes', 'lembut', 'muhammad']</t>
+          <t>['hem', 'kondisi', 'normal', 'jadwal', 'cek', 'baca', 'catatan', 'halaman', 'te']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['hem', 'kondisi', 'normal', 'jadwal', 'cek', 'baca', 'catat', 'halaman', 'te']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>14907</v>
+        <v>30109</v>
       </c>
       <c r="C63" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>kemampuan memilih</t>
+          <t>rt ramaikan preordernya yang berlangsung hingga tanggal november ok spesial dari mintang untuk merayakan buku</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['kemampuan', 'memilih']</t>
+          <t>['rt', 'ramaikan', 'preordernya', 'yang', 'berlangsung', 'hingga', 'tanggal', 'november', 'ok', 'spesial', 'dari', 'mintang', 'untuk', 'merayakan', 'buku']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'ramaikan', 'preordernya', 'yang', 'berlangsung', 'hingga', 'tanggal', 'november', 'oke', 'spesial', 'dari', 'mintang', 'untuk', 'merayakan', 'buku']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['kemampuan', 'memilih']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['mampu', 'pilih']</t>
+          <t>['ramaikan', 'preordernya', 'tanggal', 'november', 'oke', 'spesial', 'mintang', 'merayakan', 'buku']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['ramai', 'preordernya', 'tanggal', 'november', 'oke', 'spesial', 'mintang', 'raya', 'buku']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>14908</v>
+        <v>30110</v>
       </c>
       <c r="C64" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>revolusi jokowi</t>
+          <t>rt mari kita kaji bersama dalam buku klasik cak nun yang berjudul preorder november</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['revolusi', 'jokowi']</t>
+          <t>['rt', 'mari', 'kita', 'kaji', 'bersama', 'dalam', 'buku', 'klasik', 'cak', 'nun', 'yang', 'berjudul', 'preorder', 'november']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'mari', 'kita', 'kaji', 'bersama', 'dalam', 'buku', 'klasik', 'cak', 'nun', 'yang', 'berjudul', 'preorder', 'november']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['revolusi', 'jokowi']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['revolusi', 'jokowi']</t>
+          <t>['mari', 'kaji', 'buku', 'klasik', 'cak', 'nun', 'berjudul', 'preorder', 'november']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['mari', 'kaji', 'buku', 'klasik', 'cak', 'nun', 'judul', 'preorder', 'november']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>14909</v>
+        <v>30111</v>
       </c>
       <c r="C65" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>tasyyi swargi bunda cammana</t>
+          <t>inna lillahi wa inna ilaihi rojiun donya mung ngeterke tekan pecate nyawa ananging derma nggandeng manungsa te</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'donya', 'mung', 'ngeterke', 'tekan', 'pecate', 'nyawa', 'ananging', 'derma', 'nggandeng', 'manungsa', 'te']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'donya', 'mung', 'ngeterke', 'tekan', 'pecate', 'nyawa', 'ananging', 'derma', 'nggandeng', 'manungsa', 'te']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'donya', 'mung', 'ngeterke', 'tekan', 'pecate', 'nyawa', 'ananging', 'derma', 'nggandeng', 'manungsa', 'te']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'donya', 'mung', 'ngeterke', 'tekan', 'pecate', 'nyawa', 'ananging', 'derma', 'nggandeng', 'manungsa', 'te']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>14910</v>
+        <v>30112</v>
       </c>
       <c r="C66" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>tajuk narasi cinta dan airmata bunda cammana oleh emha ainun nadjib</t>
+          <t>rt nantikan buku dari emha ainun nadjib kumpulan esai yang dituangkan ke dalam buku indonesia bagian dari desa saya si</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['tajuk', 'narasi', 'cinta', 'dan', 'airmata', 'bunda', 'cammana', 'oleh', 'emha', 'ainun', 'nadjib']</t>
+          <t>['rt', 'nantikan', 'buku', 'dari', 'emha', 'ainun', 'nadjib', 'kumpulan', 'esai', 'yang', 'dituangkan', 'ke', 'dalam', 'buku', 'indonesia', 'bagian', 'dari', 'desa', 'saya', 'si']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'nantikan', 'buku', 'dari', 'emha', 'ainun', 'najib', 'kumpulan', 'esai', 'yang', 'dituangkan', 'ke', 'dalam', 'buku', 'indonesia', 'bagian', 'dari', 'desa', 'saya', 'sih']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['tajuk', 'narasi', 'cinta', 'airmata', 'bunda', 'cammana', 'emha', 'ainun', 'nadjib']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['tajuk', 'narasi', 'cinta', 'airmata', 'bunda', 'cammana', 'emha', 'ainun', 'nadjib']</t>
+          <t>['nantikan', 'buku', 'emha', 'ainun', 'najib', 'kumpulan', 'esai', 'dituangkan', 'buku', 'indonesia', 'desa']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['nanti', 'buku', 'emha', 'ainun', 'najib', 'kumpul', 'esai', 'tuang', 'buku', 'indonesia', 'desa']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>14911</v>
+        <v>30113</v>
       </c>
       <c r="C67" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>narasi cinta dan airmata bunda cammana emha ainun nadjib</t>
+          <t>rt kita perlu untuk memperbaiki diri lingkungan dan peradaban sosial agar tak tergerus oleh zaman halhal kecil kebaika</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['narasi', 'cinta', 'dan', 'airmata', 'bunda', 'cammana', 'emha', 'ainun', 'nadjib']</t>
+          <t>['rt', 'kita', 'perlu', 'untuk', 'memperbaiki', 'diri', 'lingkungan', 'dan', 'peradaban', 'sosial', 'agar', 'tak', 'tergerus', 'oleh', 'zaman', 'halhal', 'kecil', 'kebaika']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'kita', 'perlu', 'untuk', 'memperbaiki', 'diri', 'lingkungan', 'dan', 'peradaban', 'sosial', 'agar', 'tak', 'tergerus', 'oleh', 'zaman', 'halhal', 'kecil', 'kebaika']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['narasi', 'cinta', 'airmata', 'bunda', 'cammana', 'emha', 'ainun', 'nadjib']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['narasi', 'cinta', 'airmata', 'bunda', 'cammana', 'emha', 'ainun', 'nadjib']</t>
+          <t>['memperbaiki', 'lingkungan', 'peradaban', 'sosial', 'tergerus', 'zaman', 'halhal', 'kebaika']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['baik', 'lingkung', 'adab', 'sosial', 'gerus', 'zaman', 'halhal', 'kebaika']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14912</v>
+        <v>30114</v>
       </c>
       <c r="C68" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>tasyyi swargi bunda cammana</t>
+          <t>ya shalat ya maksiat</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
+          <t>['ya', 'shalat', 'ya', 'maksiat']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['ya', 'salat', 'ya', 'maksiat']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
+          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
+          <t>['salat', 'maksiat']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['salat', 'maksiat']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>14913</v>
+        <v>30115</v>
       </c>
       <c r="C69" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>innalillahi wainna ilaihi rojiuun mamak cammana</t>
+          <t>malaikat demokrasi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainna', 'ilaihi', 'rojiuun', 'mamak', 'cammana']</t>
+          <t>['malaikat', 'demokrasi']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['malaikat', 'demokrasi']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainna', 'ilaihi', 'rojiuun', 'mamak', 'cammana']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainna', 'ilaihi', 'rojiuun', 'mamak', 'cammana']</t>
+          <t>['malaikat', 'demokrasi']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['malaikat', 'demokrasi']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14914</v>
+        <v>30116</v>
       </c>
       <c r="C70" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>inna lillahi wa inna ilaihi rojiun</t>
+          <t>mustahil ada pilkada</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun']</t>
+          <t>['mustahil', 'ada', 'pilkada']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['mustahil', 'ada', 'pilihan, kepala, daerah']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun']</t>
+          <t>['mustahil', 'pilihan, kepala, daerah']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['mustahil', 'pilih kepala daerah']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14915</v>
+        <v>30117</v>
       </c>
       <c r="C71" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">inna lillahi wa inna ilaihi rojiun jamaah maiyah di seluruh nusantara dan dunia mengantarkan kembalinya ibunda </t>
+          <t>live nyenyuwun vaksin syafaat shalawat tetes kelembutan muhammad</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'jamaah', 'maiyah', 'di', 'seluruh', 'nusantara', 'dan', 'dunia', 'mengantarkan', 'kembalinya', 'ibunda']</t>
+          <t>['live', 'nyenyuwun', 'vaksin', 'syafaat', 'shalawat', 'tetes', 'kelembutan', 'muhammad']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['live', 'nyenyuwun', 'vaksin', 'syafaat', 'selawat', 'tetes', 'kelembutan', 'muhammad']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'jamaah', 'maiyah', 'nusantara', 'dunia', 'mengantarkan', 'kembalinya', 'ibunda']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'jamaah', 'maiyah', 'nusantara', 'dunia', 'antar', 'kembali', 'ibunda']</t>
+          <t>['live', 'nyenyuwun', 'vaksin', 'syafaat', 'selawat', 'tetes', 'kelembutan', 'muhammad']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['live', 'nyenyuwun', 'vaksin', 'syafaat', 'selawat', 'tetes', 'lembut', 'muhammad']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>14916</v>
+        <v>30118</v>
       </c>
       <c r="C72" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>diskusi mbah nun sabrang noe dan toto rahardjo part science attitude amp religion attitude</t>
+          <t>kemampuan memilih</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['diskusi', 'mbah', 'nun', 'sabrang', 'noe', 'dan', 'toto', 'rahardjo', 'part', 'science', 'attitude', 'amp', 'religion', 'attitude']</t>
+          <t>['kemampuan', 'memilih']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['kemampuan', 'memilih']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['diskusi', 'mbah', 'nun', 'sabrang', 'noe', 'toto', 'rahardjo', 'part', 'science', 'attitude', 'religion', 'attitude']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['diskusi', 'mbah', 'nun', 'sabrang', 'noe', 'toto', 'rahardjo', 'part', 'science', 'attitude', 'religion', 'attitude']</t>
+          <t>['kemampuan', 'memilih']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['mampu', 'pilih']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>14917</v>
+        <v>30119</v>
       </c>
       <c r="C73" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>diskusi mbah nun dan sabrang noe part kompleksitas kebenaran di antara ilmu dan agama</t>
+          <t>revolusi jokowi</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['diskusi', 'mbah', 'nun', 'dan', 'sabrang', 'noe', 'part', 'kompleksitas', 'kebenaran', 'di', 'antara', 'ilmu', 'dan', 'agama']</t>
+          <t>['revolusi', 'jokowi']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['revolusi', 'jokowi']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['diskusi', 'mbah', 'nun', 'sabrang', 'noe', 'part', 'kompleksitas', 'kebenaran', 'ilmu', 'agama']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['diskusi', 'mbah', 'nun', 'sabrang', 'noe', 'part', 'kompleksitas', 'benar', 'ilmu', 'agama']</t>
+          <t>['revolusi', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['revolusi', 'jokowi']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>14918</v>
+        <v>30120</v>
       </c>
       <c r="C74" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt cak nun dan filosofi patrap</t>
+          <t>tasyyi swargi bunda cammana</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'cak', 'nun', 'dan', 'filosofi', 'patrap']</t>
+          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['cak', 'nun', 'filosofi', 'patrap']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['cak', 'nun', 'filosofi', 'patrap']</t>
+          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>14919</v>
+        <v>30121</v>
       </c>
       <c r="C75" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>mbah nun dan sabrang noe awas bias antara sains dengan agama part</t>
+          <t>tajuk narasi cinta dan airmata bunda cammana oleh emha ainun nadjib</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['mbah', 'nun', 'dan', 'sabrang', 'noe', 'awas', 'bias', 'antara', 'sains', 'dengan', 'agama', 'part']</t>
+          <t>['tajuk', 'narasi', 'cinta', 'dan', 'airmata', 'bunda', 'cammana', 'oleh', 'emha', 'ainun', 'nadjib']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['tajuk', 'narasi', 'cinta', 'dan', 'air, mata', 'bunda', 'cammana', 'oleh', 'emha', 'ainun', 'najib']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['mbah', 'nun', 'sabrang', 'noe', 'awas', 'bias', 'sains', 'agama', 'part']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['mbah', 'nun', 'sabrang', 'noe', 'awas', 'bias', 'sains', 'agama', 'part']</t>
+          <t>['tajuk', 'narasi', 'cinta', 'air, mata', 'bunda', 'cammana', 'emha', 'ainun', 'najib']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['tajuk', 'narasi', 'cinta', 'air mata', 'bunda', 'cammana', 'emha', 'ainun', 'najib']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>14920</v>
+        <v>30122</v>
       </c>
       <c r="C76" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>rt telah beredar di grup wa apakah benar ini tulisan cak nun kami konfirmasi ini tidak benar ini adalah bentuk kejahatan</t>
+          <t>narasi cinta dan airmata bunda cammana emha ainun nadjib</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['rt', 'telah', 'beredar', 'di', 'grup', 'wa', 'apakah', 'benar', 'ini', 'tulisan', 'cak', 'nun', 'kami', 'konfirmasi', 'ini', 'tidak', 'benar', 'ini', 'adalah', 'bentuk', 'kejahatan']</t>
+          <t>['narasi', 'cinta', 'dan', 'airmata', 'bunda', 'cammana', 'emha', 'ainun', 'nadjib']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>['narasi', 'cinta', 'dan', 'air, mata', 'bunda', 'cammana', 'emha', 'ainun', 'najib']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['beredar', 'grup', 'wa', 'tulisan', 'cak', 'nun', 'konfirmasi', 'bentuk', 'kejahatan']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['edar', 'grup', 'wa', 'tulis', 'cak', 'nun', 'konfirmasi', 'bentuk', 'jahat']</t>
+          <t>['narasi', 'cinta', 'air, mata', 'bunda', 'cammana', 'emha', 'ainun', 'najib']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['narasi', 'cinta', 'air mata', 'bunda', 'cammana', 'emha', 'ainun', 'najib']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14921</v>
+        <v>30123</v>
       </c>
       <c r="C77" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>mengantarmu kembali kepada kesejatian selamat jalan bapak sapardi djoko damono</t>
+          <t>tasyyi swargi bunda cammana</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['mengantarmu', 'kembali', 'kepada', 'kesejatian', 'selamat', 'jalan', 'bapak', 'sapardi', 'djoko', 'damono']</t>
+          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['mengantarmu', 'kesejatian', 'selamat', 'jalan', 'sapardi', 'djoko', 'damono']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['antar', 'sejati', 'selamat', 'jalan', 'sapardi', 'djoko', 'damono']</t>
+          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['tasyyi', 'swargi', 'bunda', 'cammana']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14922</v>
+        <v>30124</v>
       </c>
       <c r="C78" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>bersama anak cucu saya jamaah maiyah nusantara saya turut mengantarkan kepulangan orang murni berhati suci sapardi</t>
+          <t>innalillahi wainna ilaihi rojiuun mamak cammana</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['bersama', 'anak', 'cucu', 'saya', 'jamaah', 'maiyah', 'nusantara', 'saya', 'turut', 'mengantarkan', 'kepulangan', 'orang', 'murni', 'berhati', 'suci', 'sapardi']</t>
+          <t>['innalillahi', 'wainna', 'ilaihi', 'rojiuun', 'mamak', 'cammana']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['innalillahi', 'wah, ini', 'ilaihi', 'rojiuun', 'mamak', 'cammana']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['anak', 'cucu', 'jamaah', 'maiyah', 'nusantara', 'mengantarkan', 'kepulangan', 'orang', 'murni', 'berhati', 'suci', 'sapardi']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['anak', 'cucu', 'jamaah', 'maiyah', 'nusantara', 'antar', 'pulang', 'orang', 'murni', 'hati', 'suci', 'sapardi']</t>
+          <t>['innalillahi', 'wah, ini', 'ilaihi', 'rojiuun', 'mamak', 'cammana']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wah ini', 'ilaihi', 'rojiuun', 'mamak', 'cammana']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>14923</v>
+        <v>30125</v>
       </c>
       <c r="C79" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>mozaik kegembiraan dan takdzim untuk syaikh nursamad kamba</t>
+          <t>inna lillahi wa inna ilaihi rojiun</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['mozaik', 'kegembiraan', 'dan', 'takdzim', 'untuk', 'syaikh', 'nursamad', 'kamba']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['mozaik', 'kegembiraan', 'takdzim', 'syaikh', 'nursamad', 'kamba']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['mozaik', 'gembira', 'takdzim', 'syaikh', 'nursamad', 'kamba']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>14924</v>
+        <v>30126</v>
       </c>
       <c r="C80" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>berita saya tak berhak menerima apaapa dari jamaah maiyah</t>
+          <t xml:space="preserve">inna lillahi wa inna ilaihi rojiun jamaah maiyah di seluruh nusantara dan dunia mengantarkan kembalinya ibunda </t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['berita', 'saya', 'tak', 'berhak', 'menerima', 'apaapa', 'dari', 'jamaah', 'maiyah']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'jamaah', 'maiyah', 'di', 'seluruh', 'nusantara', 'dan', 'dunia', 'mengantarkan', 'kembalinya', 'ibunda']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'jamaah', 'maiyah', 'di', 'seluruh', 'nusantara', 'dan', 'dunia', 'mengantarkan', 'kembalinya', 'ibunda']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['berita', 'berhak', 'menerima', 'apaapa', 'jamaah', 'maiyah']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['berita', 'hak', 'terima', 'apaapa', 'jamaah', 'maiyah']</t>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'jamaah', 'maiyah', 'nusantara', 'dunia', 'mengantarkan', 'kembalinya', 'ibunda']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['inna', 'lillahi', 'wa', 'inna', 'ilaihi', 'rojiun', 'jamaah', 'maiyah', 'nusantara', 'dunia', 'antar', 'kembali', 'ibunda']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>14925</v>
+        <v>30127</v>
       </c>
       <c r="C81" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt cak nun berpesan agar kita semua jamaah maiyah menggali lebih dalam khasanah ilmu yang sudah ditinggalkan oleh almarhum </t>
+          <t>diskusi mbah nun sabrang noe dan toto rahardjo part science attitude amp religion attitude</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['rt', 'cak', 'nun', 'berpesan', 'agar', 'kita', 'semua', 'jamaah', 'maiyah', 'menggali', 'lebih', 'dalam', 'khasanah', 'ilmu', 'yang', 'sudah', 'ditinggalkan', 'oleh', 'almarhum']</t>
+          <t>['diskusi', 'mbah', 'nun', 'sabrang', 'noe', 'dan', 'toto', 'rahardjo', 'part', 'science', 'attitude', 'amp', 'religion', 'attitude']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['diskusi', 'mbah', 'nun', 'sabrang', 'noe', 'dan', 'toto', 'rahardjo', 'part', 'science', 'attitude', 'amp', 'religion', 'attitude']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['cak', 'nun', 'berpesan', 'jamaah', 'maiyah', 'menggali', 'khasanah', 'ilmu', 'ditinggalkan', 'almarhum']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['cak', 'nun', 'pesan', 'jamaah', 'maiyah', 'gali', 'khasanah', 'ilmu', 'tinggal', 'almarhum']</t>
+          <t>['diskusi', 'mbah', 'nun', 'sabrang', 'noe', 'toto', 'rahardjo', 'part', 'science', 'attitude', 'religion', 'attitude']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['diskusi', 'mbah', 'nun', 'sabrang', 'noe', 'toto', 'rahardjo', 'part', 'science', 'attitude', 'religion', 'attitude']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>14926</v>
+        <v>30128</v>
       </c>
       <c r="C82" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt suasana yasinan dan tahlilan di rumah almarhum syeikh nursamad kamba malam ini di kampung dukuh kramat jati jakarta ti</t>
+          <t>diskusi mbah nun dan sabrang noe part kompleksitas kebenaran di antara ilmu dan agama</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'suasana', 'yasinan', 'dan', 'tahlilan', 'di', 'rumah', 'almarhum', 'syeikh', 'nursamad', 'kamba', 'malam', 'ini', 'di', 'kampung', 'dukuh', 'kramat', 'jati', 'jakarta', 'ti']</t>
+          <t>['diskusi', 'mbah', 'nun', 'dan', 'sabrang', 'noe', 'part', 'kompleksitas', 'kebenaran', 'di', 'antara', 'ilmu', 'dan', 'agama']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['diskusi', 'mbah', 'nun', 'dan', 'sabrang', 'noe', 'part', 'kompleksitas', 'kebenaran', 'di', 'antara', 'ilmu', 'dan', 'agama']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['suasana', 'yasinan', 'tahlilan', 'rumah', 'almarhum', 'syeikh', 'nursamad', 'kamba', 'malam', 'kampung', 'dukuh', 'kramat', 'jati', 'jakarta', 'ti']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['suasana', 'yasinan', 'tahlil', 'rumah', 'almarhum', 'syeikh', 'nursamad', 'kamba', 'malam', 'kampung', 'dukuh', 'kramat', 'jati', 'jakarta', 'ti']</t>
+          <t>['diskusi', 'mbah', 'nun', 'sabrang', 'noe', 'part', 'kompleksitas', 'kebenaran', 'ilmu', 'agama']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['diskusi', 'mbah', 'nun', 'sabrang', 'noe', 'part', 'kompleksitas', 'benar', 'ilmu', 'agama']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>14927</v>
+        <v>30129</v>
       </c>
       <c r="C83" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>rt sore tadi menjelang maghrib cak nun berziarah ke makam almarhum syeikh nursamad kamba</t>
+          <t>rt cak nun dan filosofi patrap</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['rt', 'sore', 'tadi', 'menjelang', 'maghrib', 'cak', 'nun', 'berziarah', 'ke', 'makam', 'almarhum', 'syeikh', 'nursamad', 'kamba']</t>
+          <t>['rt', 'cak', 'nun', 'dan', 'filosofi', 'patrap']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'cak', 'nun', 'dan', 'filosofi', 'patrap']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['sore', 'menjelang', 'maghrib', 'cak', 'nun', 'berziarah', 'makam', 'almarhum', 'syeikh', 'nursamad', 'kamba']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['sore', 'jelang', 'maghrib', 'cak', 'nun', 'ziarah', 'makam', 'almarhum', 'syeikh', 'nursamad', 'kamba']</t>
+          <t>['cak', 'nun', 'filosofi', 'patrap']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['cak', 'nun', 'filosofi', 'patrap']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>14928</v>
+        <v>30130</v>
       </c>
       <c r="C84" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>akik maiyah syaikh nursamad kamba dan maiyah</t>
+          <t>mbah nun dan sabrang noe awas bias antara sains dengan agama part</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['akik', 'maiyah', 'syaikh', 'nursamad', 'kamba', 'dan', 'maiyah']</t>
+          <t>['mbah', 'nun', 'dan', 'sabrang', 'noe', 'awas', 'bias', 'antara', 'sains', 'dengan', 'agama', 'part']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['mbah', 'nun', 'dan', 'sabrang', 'noe', 'awas', 'bias', 'antara', 'sains', 'dengan', 'agama', 'part']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['akik', 'maiyah', 'syaikh', 'nursamad', 'kamba', 'maiyah']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['akik', 'maiyah', 'syaikh', 'nursamad', 'kamba', 'maiyah']</t>
+          <t>['mbah', 'nun', 'sabrang', 'noe', 'awas', 'bias', 'sains', 'agama', 'part']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['mbah', 'nun', 'sabrang', 'noe', 'awas', 'bias', 'sains', 'agama', 'part']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>14929</v>
+        <v>30131</v>
       </c>
       <c r="C85" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>esai farewell to  great teacher thinker and friend written by ian  betts</t>
+          <t>rt telah beredar di grup wa apakah benar ini tulisan cak nun kami konfirmasi ini tidak benar ini adalah bentuk kejahatan</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
+          <t>['rt', 'telah', 'beredar', 'di', 'grup', 'wa', 'apakah', 'benar', 'ini', 'tulisan', 'cak', 'nun', 'kami', 'konfirmasi', 'ini', 'tidak', 'benar', 'ini', 'adalah', 'bentuk', 'kejahatan']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'telah', 'beredar', 'di', 'grup', 'wa', 'apakah', 'benar', 'ini', 'tulisan', 'cak', 'nun', 'kami', 'konfirmasi', 'ini', 'tidak', 'benar', 'ini', 'adalah', 'bentuk', 'kejahatan']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
+          <t>['beredar', 'grup', 'wa', 'tulisan', 'cak', 'nun', 'konfirmasi', 'bentuk', 'kejahatan']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['edar', 'grup', 'wa', 'tulis', 'cak', 'nun', 'konfirmasi', 'bentuk', 'jahat']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>14930</v>
+        <v>30132</v>
       </c>
       <c r="C86" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>tajuk syeikh qaryatul ilmi oleh emha ainun nadjib</t>
+          <t>mengantarmu kembali kepada kesejatian selamat jalan bapak sapardi djoko damono</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['tajuk', 'syeikh', 'qaryatul', 'ilmi', 'oleh', 'emha', 'ainun', 'nadjib']</t>
+          <t>['mengantarmu', 'kembali', 'kepada', 'kesejatian', 'selamat', 'jalan', 'bapak', 'sapardi', 'djoko', 'damono']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['mengantarmu', 'kembali', 'kepada', 'kesejatian', 'selamat', 'jalan', 'bapak', 'sapardi', 'djoko', 'damono']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['tajuk', 'syeikh', 'qaryatul', 'ilmi', 'emha', 'ainun', 'nadjib']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['tajuk', 'syeikh', 'qaryatul', 'ilmi', 'emha', 'ainun', 'nadjib']</t>
+          <t>['mengantarmu', 'kesejatian', 'selamat', 'jalan', 'sapardi', 'djoko', 'damono']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['antar', 'sejati', 'selamat', 'jalan', 'sapardi', 'djoko', 'damono']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14931</v>
+        <v>30133</v>
       </c>
       <c r="C87" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>berita serentak simpulsimpul maiyah membaca surah yasin dan doa</t>
+          <t>bersama anak cucu saya jamaah maiyah nusantara saya turut mengantarkan kepulangan orang murni berhati suci sapardi</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['berita', 'serentak', 'simpulsimpul', 'maiyah', 'membaca', 'surah', 'yasin', 'dan', 'doa']</t>
+          <t>['bersama', 'anak', 'cucu', 'saya', 'jamaah', 'maiyah', 'nusantara', 'saya', 'turut', 'mengantarkan', 'kepulangan', 'orang', 'murni', 'berhati', 'suci', 'sapardi']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['bersama', 'anak', 'cucu', 'saya', 'jamaah', 'maiyah', 'nusantara', 'saya', 'turut', 'mengantarkan', 'kepulangan', 'orang', 'murni', 'berhati', 'suci', 'sapardi']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['berita', 'serentak', 'simpulsimpul', 'maiyah', 'membaca', 'surah', 'yasin', 'doa']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['berita', 'serentak', 'simpulsimpul', 'maiyah', 'baca', 'surah', 'yasin', 'doa']</t>
+          <t>['anak', 'cucu', 'jamaah', 'maiyah', 'nusantara', 'mengantarkan', 'kepulangan', 'orang', 'murni', 'berhati', 'suci', 'sapardi']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['anak', 'cucu', 'jamaah', 'maiyah', 'nusantara', 'antar', 'pulang', 'orang', 'murni', 'hati', 'suci', 'sapardi']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>14932</v>
+        <v>30134</v>
       </c>
       <c r="C88" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>asepi alternatif bertarekat menurut syaikh kamba oleh helmi mustofa</t>
+          <t>mozaik kegembiraan dan takdzim untuk syaikh nursamad kamba</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['asepi', 'alternatif', 'bertarekat', 'menurut', 'syaikh', 'kamba', 'oleh', 'helmi', 'mustofa']</t>
+          <t>['mozaik', 'kegembiraan', 'dan', 'takdzim', 'untuk', 'syaikh', 'nursamad', 'kamba']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['mozaik', 'kegembiraan', 'dan', 'takdzim', 'untuk', 'syaikh', 'nursamad', 'kamba']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['asepi', 'alternatif', 'bertarekat', 'syaikh', 'kamba', 'helmi', 'mustofa']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['asepi', 'alternatif', 'tarekat', 'syaikh', 'kamba', 'helm', 'mustofa']</t>
+          <t>['mozaik', 'kegembiraan', 'takdzim', 'syaikh', 'nursamad', 'kamba']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['mozaik', 'gembira', 'takdzim', 'syaikh', 'nursamad', 'kamba']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>14933</v>
+        <v>30135</v>
       </c>
       <c r="C89" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>mnk blimbing mengenang syaikh nur samad kamba oleh rony  pratama</t>
+          <t>berita saya tak berhak menerima apaapa dari jamaah maiyah</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['mnk', 'blimbing', 'mengenang', 'syaikh', 'nur', 'samad', 'kamba', 'oleh', 'rony', 'pratama']</t>
+          <t>['berita', 'saya', 'tak', 'berhak', 'menerima', 'apaapa', 'dari', 'jamaah', 'maiyah']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['berita', 'saya', 'tak', 'berhak', 'menerima', 'apaapa', 'dari', 'jamaah', 'maiyah']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['mnk', 'blimbing', 'mengenang', 'syaikh', 'nur', 'samad', 'kamba', 'rony', 'pratama']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['mnk', 'blimbing', 'kenang', 'syaikh', 'nur', 'samad', 'kamba', 'rony', 'pratama']</t>
+          <t>['berita', 'berhak', 'menerima', 'apaapa', 'jamaah', 'maiyah']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['berita', 'hak', 'terima', 'apaapa', 'jamaah', 'maiyah']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14934</v>
+        <v>30136</v>
       </c>
       <c r="C90" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>esai farewell to  great teacher thinker and friend written by ian  betts</t>
+          <t xml:space="preserve">rt cak nun berpesan agar kita semua jamaah maiyah menggali lebih dalam khasanah ilmu yang sudah ditinggalkan oleh almarhum </t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
+          <t>['rt', 'cak', 'nun', 'berpesan', 'agar', 'kita', 'semua', 'jamaah', 'maiyah', 'menggali', 'lebih', 'dalam', 'khasanah', 'ilmu', 'yang', 'sudah', 'ditinggalkan', 'oleh', 'almarhum']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['rt', 'cak', 'nun', 'berpesan', 'agar', 'kita', 'semua', 'jamaah', 'maiyah', 'menggali', 'lebih', 'dalam', 'khasanah', 'ilmu', 'yang', 'sudah', 'ditinggalkan', 'oleh', 'almarhum']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
+          <t>['cak', 'nun', 'berpesan', 'jamaah', 'maiyah', 'menggali', 'khasanah', 'ilmu', 'ditinggalkan', 'almarhum']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['cak', 'nun', 'pesan', 'jamaah', 'maiyah', 'gali', 'khasanah', 'ilmu', 'tinggal', 'almarhum']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14935</v>
+        <v>30137</v>
       </c>
       <c r="C91" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>tajuk syeikh qaryatul ilmi oleh emha ainun nadjib</t>
+          <t>rt suasana yasinan dan tahlilan di rumah almarhum syeikh nursamad kamba malam ini di kampung dukuh kramat jati jakarta ti</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['tajuk', 'syeikh', 'qaryatul', 'ilmi', 'oleh', 'emha', 'ainun', 'nadjib']</t>
+          <t>['rt', 'suasana', 'yasinan', 'dan', 'tahlilan', 'di', 'rumah', 'almarhum', 'syeikh', 'nursamad', 'kamba', 'malam', 'ini', 'di', 'kampung', 'dukuh', 'kramat', 'jati', 'jakarta', 'ti']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'suasana', 'yasinan', 'dan', 'tahlilan', 'di', 'rumah', 'almarhum', 'syekh', 'nursamad', 'kamba', 'malam', 'ini', 'di', 'kampung', 'dukuh', 'kramat', 'jati', 'jakarta', 'ti']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['tajuk', 'syeikh', 'qaryatul', 'ilmi', 'emha', 'ainun', 'nadjib']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['tajuk', 'syeikh', 'qaryatul', 'ilmi', 'emha', 'ainun', 'nadjib']</t>
+          <t>['suasana', 'yasinan', 'tahlilan', 'rumah', 'almarhum', 'syekh', 'nursamad', 'kamba', 'malam', 'kampung', 'dukuh', 'kramat', 'jati', 'jakarta', 'ti']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['suasana', 'yasinan', 'tahlil', 'rumah', 'almarhum', 'syekh', 'nursamad', 'kamba', 'malam', 'kampung', 'dukuh', 'kramat', 'jati', 'jakarta', 'ti']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>14936</v>
+        <v>30138</v>
       </c>
       <c r="C92" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>berita penghormatan untuk syaikh nursamad kamba</t>
+          <t>rt sore tadi menjelang maghrib cak nun berziarah ke makam almarhum syeikh nursamad kamba</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['berita', 'penghormatan', 'untuk', 'syaikh', 'nursamad', 'kamba']</t>
+          <t>['rt', 'sore', 'tadi', 'menjelang', 'maghrib', 'cak', 'nun', 'berziarah', 'ke', 'makam', 'almarhum', 'syeikh', 'nursamad', 'kamba']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'sore', 'tadi', 'menjelang', 'maghrib', 'cak', 'nun', 'berziarah', 'ke', 'makam', 'almarhum', 'syekh', 'nursamad', 'kamba']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['berita', 'penghormatan', 'syaikh', 'nursamad', 'kamba']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['berita', 'hormat', 'syaikh', 'nursamad', 'kamba']</t>
+          <t>['sore', 'menjelang', 'maghrib', 'cak', 'nun', 'berziarah', 'makam', 'almarhum', 'syekh', 'nursamad', 'kamba']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['sore', 'jelang', 'maghrib', 'cak', 'nun', 'ziarah', 'makam', 'almarhum', 'syekh', 'nursamad', 'kamba']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>14937</v>
+        <v>30139</v>
       </c>
       <c r="C93" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>berita selamat jalan syeikh nursamad kamba</t>
+          <t>akik maiyah syaikh nursamad kamba dan maiyah</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['berita', 'selamat', 'jalan', 'syeikh', 'nursamad', 'kamba']</t>
+          <t>['akik', 'maiyah', 'syaikh', 'nursamad', 'kamba', 'dan', 'maiyah']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['akik', 'maiyah', 'syaikh', 'nursamad', 'kamba', 'dan', 'maiyah']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['berita', 'selamat', 'jalan', 'syeikh', 'nursamad', 'kamba']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['berita', 'selamat', 'jalan', 'syeikh', 'nursamad', 'kamba']</t>
+          <t>['akik', 'maiyah', 'syaikh', 'nursamad', 'kamba', 'maiyah']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['akik', 'maiyah', 'syaikh', 'nursamad', 'kamba', 'maiyah']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>14938</v>
+        <v>30140</v>
       </c>
       <c r="C94" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>berita penghormatan untuk syaikh nursamad kamba</t>
+          <t>esai farewell to  great teacher thinker and friend written by ian  betts</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['berita', 'penghormatan', 'untuk', 'syaikh', 'nursamad', 'kamba']</t>
+          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['berita', 'penghormatan', 'syaikh', 'nursamad', 'kamba']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['berita', 'hormat', 'syaikh', 'nursamad', 'kamba']</t>
+          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4293,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>14939</v>
+        <v>30141</v>
       </c>
       <c r="C95" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rt proses pemakaman syeikh nursamad kamba di tpu kampung rambutan jakarta timur</t>
+          <t>tajuk syeikh qaryatul ilmi oleh emha ainun nadjib</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rt', 'proses', 'pemakaman', 'syeikh', 'nursamad', 'kamba', 'di', 'tpu', 'kampung', 'rambutan', 'jakarta', 'timur']</t>
+          <t>['tajuk', 'syeikh', 'qaryatul', 'ilmi', 'oleh', 'emha', 'ainun', 'nadjib']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['tajuk', 'syekh', 'qaryatul', 'ilmi', 'oleh', 'emha', 'ainun', 'najib']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['proses', 'pemakaman', 'syeikh', 'nursamad', 'kamba', 'tpu', 'kampung', 'rambutan', 'jakarta', 'timur']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['proses', 'makam', 'syeikh', 'nursamad', 'kamba', 'tpu', 'kampung', 'rambutan', 'jakarta', 'timur']</t>
+          <t>['tajuk', 'syekh', 'qaryatul', 'ilmi', 'emha', 'ainun', 'najib']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['tajuk', 'syekh', 'qaryatul', 'ilmi', 'emha', 'ainun', 'najib']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4334,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>14940</v>
+        <v>30142</v>
       </c>
       <c r="C96" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>rt usai ashar jenazah syeikh nursamad kamba menuju peristirahatan terakhir di tpu kampung rambutan jakarta timur</t>
+          <t>berita serentak simpulsimpul maiyah membaca surah yasin dan doa</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['rt', 'usai', 'ashar', 'jenazah', 'syeikh', 'nursamad', 'kamba', 'menuju', 'peristirahatan', 'terakhir', 'di', 'tpu', 'kampung', 'rambutan', 'jakarta', 'timur']</t>
+          <t>['berita', 'serentak', 'simpulsimpul', 'maiyah', 'membaca', 'surah', 'yasin', 'dan', 'doa']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['berita', 'serentak', 'simpulsimpul', 'maiyah', 'membaca', 'surah', 'yasin', 'dan', 'doa']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['ashar', 'jenazah', 'syeikh', 'nursamad', 'kamba', 'peristirahatan', 'tpu', 'kampung', 'rambutan', 'jakarta', 'timur']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['ashar', 'jenazah', 'syeikh', 'nursamad', 'kamba', 'istirahat', 'tpu', 'kampung', 'rambutan', 'jakarta', 'timur']</t>
+          <t>['berita', 'serentak', 'simpulsimpul', 'maiyah', 'membaca', 'surah', 'yasin', 'doa']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['berita', 'serentak', 'simpulsimpul', 'maiyah', 'baca', 'surah', 'yasin', 'doa']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4375,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>14941</v>
+        <v>30143</v>
       </c>
       <c r="C97" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>rt jenazah syeikh nursamad kamba dipindahkan menuju masjid sebelum setelah ashar nanti dimakamkan di tpu kampung rambutan</t>
+          <t>asepi alternatif bertarekat menurut syaikh kamba oleh helmi mustofa</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['rt', 'jenazah', 'syeikh', 'nursamad', 'kamba', 'dipindahkan', 'menuju', 'masjid', 'sebelum', 'setelah', 'ashar', 'nanti', 'dimakamkan', 'di', 'tpu', 'kampung', 'rambutan']</t>
+          <t>['asepi', 'alternatif', 'bertarekat', 'menurut', 'syaikh', 'kamba', 'oleh', 'helmi', 'mustofa']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['asepi', 'alternatif', 'bertarekat', 'menurut', 'syaikh', 'kamba', 'oleh', 'helmi', 'mustofa']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['jenazah', 'syeikh', 'nursamad', 'kamba', 'dipindahkan', 'masjid', 'ashar', 'dimakamkan', 'tpu', 'kampung', 'rambutan']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['jenazah', 'syeikh', 'nursamad', 'kamba', 'pindah', 'masjid', 'ashar', 'makam', 'tpu', 'kampung', 'rambutan']</t>
+          <t>['asepi', 'alternatif', 'bertarekat', 'syaikh', 'kamba', 'helmi', 'mustofa']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['asepi', 'alternatif', 'tarekat', 'syaikh', 'kamba', 'helm', 'mustofa']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4416,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14942</v>
+        <v>30144</v>
       </c>
       <c r="C98" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>rt jenazah syeikh nursamad kamba baru saja selesai dimandikan dan dikafani keluarga sanak kerabat sahabat dan jamaah mai</t>
+          <t>mnk blimbing mengenang syaikh nur samad kamba oleh rony  pratama</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['rt', 'jenazah', 'syeikh', 'nursamad', 'kamba', 'baru', 'saja', 'selesai', 'dimandikan', 'dan', 'dikafani', 'keluarga', 'sanak', 'kerabat', 'sahabat', 'dan', 'jamaah', 'mai']</t>
+          <t>['mnk', 'blimbing', 'mengenang', 'syaikh', 'nur', 'samad', 'kamba', 'oleh', 'rony', 'pratama']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['mnk', 'blimbing', 'mengenang', 'syaikh', 'nur', 'samad', 'kamba', 'oleh', 'rony', 'pratama']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['jenazah', 'syeikh', 'nursamad', 'kamba', 'selesai', 'dimandikan', 'dikafani', 'keluarga', 'sanak', 'kerabat', 'sahabat', 'jamaah', 'mai']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['jenazah', 'syeikh', 'nursamad', 'kamba', 'selesai', 'mandi', 'kafan', 'keluarga', 'sanak', 'kerabat', 'sahabat', 'jamaah', 'mai']</t>
+          <t>['mnk', 'blimbing', 'mengenang', 'syaikh', 'nur', 'samad', 'kamba', 'rony', 'pratama']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['mnk', 'blimbing', 'kenang', 'syaikh', 'nur', 'samad', 'kamba', 'rony', 'pratama']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4457,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14943</v>
+        <v>30145</v>
       </c>
       <c r="C99" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>berita selamat jalan syeikh nursamad kamba</t>
+          <t>esai farewell to  great teacher thinker and friend written by ian  betts</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['berita', 'selamat', 'jalan', 'syeikh', 'nursamad', 'kamba']</t>
+          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['berita', 'selamat', 'jalan', 'syeikh', 'nursamad', 'kamba']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['berita', 'selamat', 'jalan', 'syeikh', 'nursamad', 'kamba']</t>
+          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4498,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14944</v>
+        <v>30146</v>
       </c>
       <c r="C100" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>esai farewell to  great teacher thinker and friend written by ian  betts</t>
+          <t>tajuk syeikh qaryatul ilmi oleh emha ainun nadjib</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
+          <t>['tajuk', 'syeikh', 'qaryatul', 'ilmi', 'oleh', 'emha', 'ainun', 'nadjib']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['tajuk', 'syekh', 'qaryatul', 'ilmi', 'oleh', 'emha', 'ainun', 'najib']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['esai', 'farewell', 'to', 'great', 'teacher', 'thinker', 'and', 'friend', 'written', 'by', 'ian', 'betts']</t>
+          <t>['tajuk', 'syekh', 'qaryatul', 'ilmi', 'emha', 'ainun', 'najib']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['tajuk', 'syekh', 'qaryatul', 'ilmi', 'emha', 'ainun', 'najib']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4539,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14945</v>
+        <v>30147</v>
       </c>
       <c r="C101" t="n">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>tajuk syeikh qaryatul ilmi oleh emha ainun nadjib</t>
+          <t>berita penghormatan untuk syaikh nursamad kamba</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['tajuk', 'syeikh', 'qaryatul', 'ilmi', 'oleh', 'emha', 'ainun', 'nadjib']</t>
+          <t>['berita', 'penghormatan', 'untuk', 'syaikh', 'nursamad', 'kamba']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['berita', 'penghormatan', 'untuk', 'syaikh', 'nursamad', 'kamba']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['tajuk', 'syeikh', 'qaryatul', 'ilmi', 'emha', 'ainun', 'nadjib']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['tajuk', 'syeikh', 'qaryatul', 'ilmi', 'emha', 'ainun', 'nadjib']</t>
+          <t>['berita', 'penghormatan', 'syaikh', 'nursamad', 'kamba']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['berita', 'hormat', 'syaikh', 'nursamad', 'kamba']</t>
         </is>
       </c>
     </row>
